--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10500"/>
+    <workbookView windowWidth="23895" windowHeight="10500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
   <si>
     <t>出处</t>
   </si>
@@ -305,49 +305,382 @@
     <t>炎帝侍</t>
   </si>
   <si>
-    <t>聚魂</t>
-  </si>
-  <si>
-    <t>修炼</t>
-  </si>
-  <si>
-    <t>飞升</t>
-  </si>
-  <si>
     <t>仙缘</t>
   </si>
   <si>
-    <t>绝技一</t>
-  </si>
-  <si>
     <t>绝技一副</t>
   </si>
   <si>
-    <t>绝技二</t>
-  </si>
-  <si>
     <t>绝技二副</t>
   </si>
   <si>
-    <t>绝技三</t>
-  </si>
-  <si>
     <t>绝技三副</t>
   </si>
   <si>
-    <t>绝技四</t>
-  </si>
-  <si>
-    <t>绝技五</t>
-  </si>
-  <si>
-    <t>绝技六</t>
-  </si>
-  <si>
     <t>绝技六副</t>
   </si>
   <si>
-    <t>云裳</t>
+    <t>巫后</t>
+  </si>
+  <si>
+    <t>镇狱明王</t>
+  </si>
+  <si>
+    <t>李逍遥</t>
+  </si>
+  <si>
+    <t>林月如</t>
+  </si>
+  <si>
+    <t>拜月教主</t>
+  </si>
+  <si>
+    <t>阿奴</t>
+  </si>
+  <si>
+    <t>天鬼皇</t>
+  </si>
+  <si>
+    <t>水魔兽</t>
+  </si>
+  <si>
+    <t>天魑皇</t>
+  </si>
+  <si>
+    <t>孔磷</t>
+  </si>
+  <si>
+    <t>王小虎</t>
+  </si>
+  <si>
+    <t>苏媚</t>
+  </si>
+  <si>
+    <t>李忆如</t>
+  </si>
+  <si>
+    <t>沈欺霜</t>
+  </si>
+  <si>
+    <t>冰晶女</t>
+  </si>
+  <si>
+    <t>帝江神兽</t>
+  </si>
+  <si>
+    <t>清微</t>
+  </si>
+  <si>
+    <t>邪剑仙</t>
+  </si>
+  <si>
+    <t>红葵</t>
+  </si>
+  <si>
+    <t>唐雪见</t>
+  </si>
+  <si>
+    <t>花楹</t>
+  </si>
+  <si>
+    <t>蓝葵</t>
+  </si>
+  <si>
+    <t>雷元戈</t>
+  </si>
+  <si>
+    <t>三外</t>
+  </si>
+  <si>
+    <t>南宫煌</t>
+  </si>
+  <si>
+    <t>王蓬絮</t>
+  </si>
+  <si>
+    <t>温慧</t>
+  </si>
+  <si>
+    <t>熔岩兽王</t>
+  </si>
+  <si>
+    <t>慕容紫英</t>
+  </si>
+  <si>
+    <t>柳梦璃</t>
+  </si>
+  <si>
+    <t>云天河</t>
+  </si>
+  <si>
+    <t>夙瑶</t>
+  </si>
+  <si>
+    <t>韩菱纱</t>
+  </si>
+  <si>
+    <t>姜云凡</t>
+  </si>
+  <si>
+    <t>唐雨柔</t>
+  </si>
+  <si>
+    <t>黑豹</t>
+  </si>
+  <si>
+    <t>妖灵雪女</t>
+  </si>
+  <si>
+    <t>凌波</t>
+  </si>
+  <si>
+    <t>枯木</t>
+  </si>
+  <si>
+    <t>厉岩</t>
+  </si>
+  <si>
+    <t>暮菖兰</t>
+  </si>
+  <si>
+    <t>结萝</t>
+  </si>
+  <si>
+    <t>瑕</t>
+  </si>
+  <si>
+    <t>葛巧菱</t>
+  </si>
+  <si>
+    <t>灵月宫主</t>
+  </si>
+  <si>
+    <t>梦蛇灵儿</t>
+  </si>
+  <si>
+    <t>赵灵儿</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>酒剑仙</t>
+  </si>
+  <si>
+    <t>柔情月如</t>
+  </si>
+  <si>
+    <t>掌门逍遥</t>
+  </si>
+  <si>
+    <t>盛尊武</t>
+  </si>
+  <si>
+    <t>千叶禅师</t>
+  </si>
+  <si>
+    <t>梦蛇紫萱</t>
+  </si>
+  <si>
+    <t>魔尊重楼</t>
+  </si>
+  <si>
+    <t>太子龙阳</t>
+  </si>
+  <si>
+    <t>公主龙葵</t>
+  </si>
+  <si>
+    <t>重楼</t>
+  </si>
+  <si>
+    <t>紫萱</t>
+  </si>
+  <si>
+    <t>夕瑶</t>
+  </si>
+  <si>
+    <t>飞蓬</t>
+  </si>
+  <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>景天</t>
+  </si>
+  <si>
+    <t>天妖皇</t>
+  </si>
+  <si>
+    <t>李三思</t>
+  </si>
+  <si>
+    <t>掌门长卿</t>
+  </si>
+  <si>
+    <t>燎日</t>
+  </si>
+  <si>
+    <t>星璇</t>
+  </si>
+  <si>
+    <t>厉江流</t>
+  </si>
+  <si>
+    <t>夙莘</t>
+  </si>
+  <si>
+    <t>太清真人</t>
+  </si>
+  <si>
+    <t>宗炼</t>
+  </si>
+  <si>
+    <t>重光</t>
+  </si>
+  <si>
+    <t>青阳</t>
+  </si>
+  <si>
+    <t>奚仲</t>
+  </si>
+  <si>
+    <t>归邪</t>
+  </si>
+  <si>
+    <t>婵幽</t>
+  </si>
+  <si>
+    <t>句芒</t>
+  </si>
+  <si>
+    <t>衔烛之龙</t>
+  </si>
+  <si>
+    <t>夙玉</t>
+  </si>
+  <si>
+    <t>云天青</t>
+  </si>
+  <si>
+    <t>玄霄</t>
+  </si>
+  <si>
+    <t>海棠夫人</t>
+  </si>
+  <si>
+    <t>太武</t>
+  </si>
+  <si>
+    <t>草谷</t>
+  </si>
+  <si>
+    <t>青石</t>
+  </si>
+  <si>
+    <t>凌音</t>
+  </si>
+  <si>
+    <t>一贫</t>
+  </si>
+  <si>
+    <t>铁笔</t>
+  </si>
+  <si>
+    <t>玉书</t>
+  </si>
+  <si>
+    <t>龙幽</t>
+  </si>
+  <si>
+    <t>小蛮</t>
+  </si>
+  <si>
+    <t>岚翼</t>
+  </si>
+  <si>
+    <t>火灵炎舞</t>
+  </si>
+  <si>
+    <t>巨龙穹武</t>
+  </si>
+  <si>
+    <t>姜承</t>
+  </si>
+  <si>
+    <t>谢沧行</t>
+  </si>
+  <si>
+    <t>龙溟</t>
+  </si>
+  <si>
+    <t>夏侯瑾轩</t>
+  </si>
+  <si>
+    <t>皇甫卓</t>
+  </si>
+  <si>
+    <t>归墟界督</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>宿何</t>
+  </si>
+  <si>
+    <t>忘尘司命</t>
+  </si>
+  <si>
+    <t>藏锋</t>
+  </si>
+  <si>
+    <t>洛埋名</t>
+  </si>
+  <si>
+    <t>临渊</t>
+  </si>
+  <si>
+    <t>聆夜</t>
+  </si>
+  <si>
+    <t>祝圄</t>
+  </si>
+  <si>
+    <t>顾寒江</t>
+  </si>
+  <si>
+    <t>朔漩</t>
+  </si>
+  <si>
+    <t>嬴旭危</t>
+  </si>
+  <si>
+    <t>绮里小嫒</t>
+  </si>
+  <si>
+    <t>葛清霏</t>
+  </si>
+  <si>
+    <t>扁络桓</t>
+  </si>
+  <si>
+    <t>居十方</t>
+  </si>
+  <si>
+    <t>明绣</t>
+  </si>
+  <si>
+    <t>洛昭言</t>
+  </si>
+  <si>
+    <t>闲卿</t>
+  </si>
+  <si>
+    <t>越祈</t>
+  </si>
+  <si>
+    <t>越今朝</t>
   </si>
 </sst>
 </file>
@@ -355,10 +688,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -370,21 +703,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,15 +724,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,21 +741,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,46 +749,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -497,6 +763,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -505,9 +832,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,7 +855,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,175 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,9 +1051,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +1065,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,22 +1093,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,6 +1123,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -798,21 +1146,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -821,10 +1154,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,133 +1166,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,7 +1630,7 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2234,699 +2567,360 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:16">
+    <row r="1" s="1" customFormat="1" spans="2:8">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <f>COUNTA(A2:A9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <f>COUNTA(A10:A15)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <f>COUNTA(A16:A23)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="1">
+        <f>COUNTA(A24:A27)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <f>COUNTA(A28:A33)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <f>COUNTA(A34:A35)</f>
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>40</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2">
-        <v>60</v>
-      </c>
-      <c r="N2">
-        <v>16</v>
-      </c>
-      <c r="O2">
-        <v>16</v>
-      </c>
-      <c r="P2">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
+      <c r="C36" s="1">
+        <f>COUNTA(A36:A43)</f>
         <v>8</v>
       </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>24</v>
-      </c>
-      <c r="O3">
-        <v>24</v>
-      </c>
-      <c r="P3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>32</v>
-      </c>
-      <c r="O4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="L5">
-        <v>24</v>
-      </c>
-      <c r="N5">
-        <v>52</v>
-      </c>
-      <c r="O5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>80</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>40</v>
-      </c>
-      <c r="L6">
-        <v>30</v>
-      </c>
-      <c r="N6">
-        <v>72</v>
-      </c>
-      <c r="O6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>120</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>60</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>60</v>
-      </c>
-      <c r="L7">
-        <v>45</v>
-      </c>
-      <c r="N7">
-        <v>80</v>
-      </c>
-      <c r="O7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>160</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>80</v>
-      </c>
-      <c r="H8">
-        <v>40</v>
-      </c>
-      <c r="I8">
-        <v>80</v>
-      </c>
-      <c r="L8">
-        <v>60</v>
-      </c>
-      <c r="N8">
-        <v>80</v>
-      </c>
-      <c r="O8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>25</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <v>75</v>
-      </c>
-      <c r="N9">
-        <v>80</v>
-      </c>
-      <c r="O9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>120</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="I10">
-        <v>120</v>
-      </c>
-      <c r="L10">
-        <v>90</v>
-      </c>
-      <c r="N10">
-        <v>80</v>
-      </c>
-      <c r="O10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11">
-        <v>160</v>
-      </c>
-      <c r="H11">
-        <v>80</v>
-      </c>
-      <c r="I11">
-        <v>160</v>
-      </c>
-      <c r="L11">
-        <v>120</v>
-      </c>
-      <c r="N11">
-        <v>80</v>
-      </c>
-      <c r="O11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="D40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="D41">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ref="B42:P42" si="0">SUM(B2:B41)</f>
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>410</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="0"/>
-        <v>596</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="0"/>
-        <v>596</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="C44">
+        <f>SUM(C2:C43)</f>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C43"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2935,699 +2929,578 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:16">
+    <row r="1" s="1" customFormat="1" spans="2:8">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <f>COUNTA(A2:A7)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="C8" s="1">
+        <f>COUNTA(A8:A11)</f>
         <v>4</v>
       </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>40</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2">
-        <v>60</v>
-      </c>
-      <c r="N2">
-        <v>16</v>
-      </c>
-      <c r="O2">
-        <v>16</v>
-      </c>
-      <c r="P2">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <f>COUNTA(A12:A22)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="1">
+        <f>COUNTA(A23:A26)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <f>COUNTA(A27:A40)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1">
+        <f>COUNTA(A41:A50)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="C51" s="1">
+        <f>COUNTA(A51:A58)</f>
         <v>8</v>
       </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>24</v>
-      </c>
-      <c r="O3">
-        <v>24</v>
-      </c>
-      <c r="P3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="1">
+        <f>COUNTA(A59:A78)</f>
         <v>20</v>
       </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>32</v>
-      </c>
-      <c r="O4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="L5">
-        <v>24</v>
-      </c>
-      <c r="N5">
-        <v>52</v>
-      </c>
-      <c r="O5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>80</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>40</v>
-      </c>
-      <c r="L6">
-        <v>30</v>
-      </c>
-      <c r="N6">
-        <v>72</v>
-      </c>
-      <c r="O6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>120</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>60</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>60</v>
-      </c>
-      <c r="L7">
-        <v>45</v>
-      </c>
-      <c r="N7">
-        <v>80</v>
-      </c>
-      <c r="O7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>160</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>80</v>
-      </c>
-      <c r="H8">
-        <v>40</v>
-      </c>
-      <c r="I8">
-        <v>80</v>
-      </c>
-      <c r="L8">
-        <v>60</v>
-      </c>
-      <c r="N8">
-        <v>80</v>
-      </c>
-      <c r="O8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>25</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <v>75</v>
-      </c>
-      <c r="N9">
-        <v>80</v>
-      </c>
-      <c r="O9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>120</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="I10">
-        <v>120</v>
-      </c>
-      <c r="L10">
-        <v>90</v>
-      </c>
-      <c r="N10">
-        <v>80</v>
-      </c>
-      <c r="O10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>40</v>
-      </c>
-      <c r="G11">
-        <v>160</v>
-      </c>
-      <c r="H11">
-        <v>80</v>
-      </c>
-      <c r="I11">
-        <v>160</v>
-      </c>
-      <c r="L11">
-        <v>120</v>
-      </c>
-      <c r="N11">
-        <v>80</v>
-      </c>
-      <c r="O11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="D40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="D41">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ref="B42:P42" si="0">SUM(B2:B41)</f>
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>410</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="0"/>
-        <v>596</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="0"/>
-        <v>596</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="C79">
+        <f>SUM(C2:C78)</f>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B59:B78"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C27:C40"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="C59:C78"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
   <si>
     <t>出处</t>
   </si>
@@ -305,58 +305,109 @@
     <t>炎帝侍</t>
   </si>
   <si>
-    <t>仙缘</t>
-  </si>
-  <si>
-    <t>绝技一副</t>
-  </si>
-  <si>
-    <t>绝技二副</t>
-  </si>
-  <si>
-    <t>绝技三副</t>
-  </si>
-  <si>
-    <t>绝技六副</t>
+    <t>仙缘1</t>
+  </si>
+  <si>
+    <t>仙缘2</t>
+  </si>
+  <si>
+    <t>仙缘31</t>
+  </si>
+  <si>
+    <t>仙缘32</t>
+  </si>
+  <si>
+    <t>仙缘33</t>
+  </si>
+  <si>
+    <t>仙缘34</t>
+  </si>
+  <si>
+    <t>绝技1</t>
+  </si>
+  <si>
+    <t>绝技2</t>
+  </si>
+  <si>
+    <t>绝技3</t>
+  </si>
+  <si>
+    <t>云裳</t>
   </si>
   <si>
     <t>巫后</t>
   </si>
   <si>
+    <t>夕瑶</t>
+  </si>
+  <si>
+    <t>水魔兽</t>
+  </si>
+  <si>
+    <t>紫萱</t>
+  </si>
+  <si>
+    <t>赵灵儿</t>
+  </si>
+  <si>
+    <t>李忆如</t>
+  </si>
+  <si>
+    <t>小蛮</t>
+  </si>
+  <si>
     <t>镇狱明王</t>
   </si>
   <si>
+    <t>邪剑仙</t>
+  </si>
+  <si>
+    <t>拜月教主</t>
+  </si>
+  <si>
+    <t>雷元戈</t>
+  </si>
+  <si>
     <t>李逍遥</t>
   </si>
   <si>
     <t>林月如</t>
   </si>
   <si>
-    <t>拜月教主</t>
-  </si>
-  <si>
     <t>阿奴</t>
   </si>
   <si>
+    <t>瑕</t>
+  </si>
+  <si>
+    <t>苏媚</t>
+  </si>
+  <si>
+    <t>草谷</t>
+  </si>
+  <si>
     <t>天鬼皇</t>
   </si>
   <si>
-    <t>水魔兽</t>
+    <t>孔磷</t>
+  </si>
+  <si>
+    <t>王小虎</t>
   </si>
   <si>
     <t>天魑皇</t>
   </si>
   <si>
-    <t>孔磷</t>
-  </si>
-  <si>
-    <t>王小虎</t>
-  </si>
-  <si>
-    <t>苏媚</t>
-  </si>
-  <si>
-    <t>李忆如</t>
+    <t>帝江神兽</t>
+  </si>
+  <si>
+    <t>千叶禅师</t>
+  </si>
+  <si>
+    <t>天妖皇</t>
+  </si>
+  <si>
+    <t>燎日</t>
   </si>
   <si>
     <t>沈欺霜</t>
@@ -365,15 +416,9 @@
     <t>冰晶女</t>
   </si>
   <si>
-    <t>帝江神兽</t>
-  </si>
-  <si>
     <t>清微</t>
   </si>
   <si>
-    <t>邪剑仙</t>
-  </si>
-  <si>
     <t>红葵</t>
   </si>
   <si>
@@ -386,9 +431,6 @@
     <t>蓝葵</t>
   </si>
   <si>
-    <t>雷元戈</t>
-  </si>
-  <si>
     <t>三外</t>
   </si>
   <si>
@@ -446,37 +488,55 @@
     <t>结萝</t>
   </si>
   <si>
-    <t>瑕</t>
-  </si>
-  <si>
     <t>葛巧菱</t>
   </si>
   <si>
+    <t>柔情月如</t>
+  </si>
+  <si>
+    <t>李三思</t>
+  </si>
+  <si>
     <t>灵月宫主</t>
   </si>
   <si>
+    <t>闲卿</t>
+  </si>
+  <si>
     <t>梦蛇灵儿</t>
   </si>
   <si>
-    <t>赵灵儿</t>
-  </si>
-  <si>
     <t>剑圣</t>
   </si>
   <si>
+    <t>掌门逍遥</t>
+  </si>
+  <si>
+    <t>海棠夫人</t>
+  </si>
+  <si>
     <t>酒剑仙</t>
   </si>
   <si>
-    <t>柔情月如</t>
-  </si>
-  <si>
-    <t>掌门逍遥</t>
+    <t>一贫</t>
+  </si>
+  <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>太武</t>
+  </si>
+  <si>
+    <t>铁笔</t>
+  </si>
+  <si>
+    <t>谢沧行</t>
   </si>
   <si>
     <t>盛尊武</t>
   </si>
   <si>
-    <t>千叶禅师</t>
+    <t>姜承</t>
   </si>
   <si>
     <t>梦蛇紫萱</t>
@@ -494,33 +554,15 @@
     <t>重楼</t>
   </si>
   <si>
-    <t>紫萱</t>
-  </si>
-  <si>
-    <t>夕瑶</t>
-  </si>
-  <si>
     <t>飞蓬</t>
   </si>
   <si>
-    <t>徐长卿</t>
-  </si>
-  <si>
     <t>景天</t>
   </si>
   <si>
-    <t>天妖皇</t>
-  </si>
-  <si>
-    <t>李三思</t>
-  </si>
-  <si>
     <t>掌门长卿</t>
   </si>
   <si>
-    <t>燎日</t>
-  </si>
-  <si>
     <t>星璇</t>
   </si>
   <si>
@@ -566,36 +608,18 @@
     <t>玄霄</t>
   </si>
   <si>
-    <t>海棠夫人</t>
-  </si>
-  <si>
-    <t>太武</t>
-  </si>
-  <si>
-    <t>草谷</t>
-  </si>
-  <si>
     <t>青石</t>
   </si>
   <si>
     <t>凌音</t>
   </si>
   <si>
-    <t>一贫</t>
-  </si>
-  <si>
-    <t>铁笔</t>
-  </si>
-  <si>
     <t>玉书</t>
   </si>
   <si>
     <t>龙幽</t>
   </si>
   <si>
-    <t>小蛮</t>
-  </si>
-  <si>
     <t>岚翼</t>
   </si>
   <si>
@@ -605,12 +629,6 @@
     <t>巨龙穹武</t>
   </si>
   <si>
-    <t>姜承</t>
-  </si>
-  <si>
-    <t>谢沧行</t>
-  </si>
-  <si>
     <t>龙溟</t>
   </si>
   <si>
@@ -672,9 +690,6 @@
   </si>
   <si>
     <t>洛昭言</t>
-  </si>
-  <si>
-    <t>闲卿</t>
   </si>
   <si>
     <t>越祈</t>
@@ -702,6 +717,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -716,9 +747,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,7 +801,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,37 +820,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,32 +847,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,7 +870,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,37 +912,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,19 +936,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,13 +984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,25 +1002,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,25 +1026,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,7 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,6 +1061,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1069,69 +1138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1146,6 +1152,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1154,10 +1169,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1166,133 +1181,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2567,18 +2582,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
+    <col min="4" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:8">
+    <row r="1" s="1" customFormat="1" spans="2:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2600,10 +2616,25 @@
       <c r="H1" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2612,52 +2643,160 @@
         <f>COUNTA(A2:A9)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2666,40 +2805,124 @@
         <f>COUNTA(A10:A15)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -2711,52 +2934,52 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1">
         <f>COUNTA(A24:A27)</f>
@@ -2765,25 +2988,25 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -2795,37 +3018,37 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
@@ -2837,13 +3060,13 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
@@ -2855,43 +3078,43 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C43" s="1"/>
     </row>
@@ -2929,18 +3152,19 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
+    <col min="4" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:8">
+    <row r="1" s="1" customFormat="1" spans="2:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2962,10 +3186,25 @@
       <c r="H1" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2974,40 +3213,133 @@
         <f>COUNTA(A2:A7)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3016,28 +3348,85 @@
         <f>COUNTA(A8:A11)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
@@ -3049,70 +3438,70 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1">
         <f>COUNTA(A23:A26)</f>
@@ -3121,25 +3510,25 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -3151,85 +3540,85 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>31</v>
@@ -3241,61 +3630,61 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
@@ -3307,52 +3696,52 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C59" s="1">
         <f>COUNTA(A59:A78)</f>
@@ -3361,115 +3750,115 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C78" s="1"/>
     </row>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -401,6 +401,9 @@
     <t>帝江神兽</t>
   </si>
   <si>
+    <t>青阳</t>
+  </si>
+  <si>
     <t>千叶禅师</t>
   </si>
   <si>
@@ -416,37 +419,88 @@
     <t>冰晶女</t>
   </si>
   <si>
+    <t>妖灵雪女</t>
+  </si>
+  <si>
+    <t>火灵炎舞</t>
+  </si>
+  <si>
+    <t>熔岩兽王</t>
+  </si>
+  <si>
+    <t>黑豹</t>
+  </si>
+  <si>
+    <t>衔烛之龙</t>
+  </si>
+  <si>
+    <t>句芒</t>
+  </si>
+  <si>
+    <t>巨龙穹武</t>
+  </si>
+  <si>
     <t>清微</t>
   </si>
   <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>一贫</t>
+  </si>
+  <si>
+    <t>太武</t>
+  </si>
+  <si>
     <t>红葵</t>
   </si>
   <si>
+    <t>蓝葵</t>
+  </si>
+  <si>
+    <t>结萝</t>
+  </si>
+  <si>
+    <t>慕容紫英</t>
+  </si>
+  <si>
     <t>唐雪见</t>
   </si>
   <si>
+    <t>景天</t>
+  </si>
+  <si>
     <t>花楹</t>
   </si>
   <si>
-    <t>蓝葵</t>
+    <t>王蓬絮</t>
   </si>
   <si>
     <t>三外</t>
   </si>
   <si>
+    <t>温慧</t>
+  </si>
+  <si>
     <t>南宫煌</t>
   </si>
   <si>
-    <t>王蓬絮</t>
-  </si>
-  <si>
-    <t>温慧</t>
-  </si>
-  <si>
-    <t>熔岩兽王</t>
-  </si>
-  <si>
-    <t>慕容紫英</t>
+    <t>星璇</t>
+  </si>
+  <si>
+    <t>酒剑仙</t>
+  </si>
+  <si>
+    <t>岚翼</t>
+  </si>
+  <si>
+    <t>夙瑶</t>
+  </si>
+  <si>
+    <t>韩菱纱</t>
   </si>
   <si>
     <t>柳梦璃</t>
@@ -455,10 +509,13 @@
     <t>云天河</t>
   </si>
   <si>
-    <t>夙瑶</t>
-  </si>
-  <si>
-    <t>韩菱纱</t>
+    <t>云天青</t>
+  </si>
+  <si>
+    <t>玄霄</t>
+  </si>
+  <si>
+    <t>夙玉</t>
   </si>
   <si>
     <t>姜云凡</t>
@@ -467,25 +524,37 @@
     <t>唐雨柔</t>
   </si>
   <si>
-    <t>黑豹</t>
-  </si>
-  <si>
-    <t>妖灵雪女</t>
+    <t>皇甫卓</t>
+  </si>
+  <si>
+    <t>龙幽</t>
   </si>
   <si>
     <t>凌波</t>
   </si>
   <si>
+    <t>龙溟</t>
+  </si>
+  <si>
+    <t>凌音</t>
+  </si>
+  <si>
+    <t>暮菖兰</t>
+  </si>
+  <si>
     <t>枯木</t>
   </si>
   <si>
+    <t>姜承</t>
+  </si>
+  <si>
     <t>厉岩</t>
   </si>
   <si>
-    <t>暮菖兰</t>
-  </si>
-  <si>
-    <t>结萝</t>
+    <t>谢沧行</t>
+  </si>
+  <si>
+    <t>夏侯瑾轩</t>
   </si>
   <si>
     <t>葛巧菱</t>
@@ -500,79 +569,64 @@
     <t>灵月宫主</t>
   </si>
   <si>
+    <t>掌门逍遥</t>
+  </si>
+  <si>
     <t>闲卿</t>
   </si>
   <si>
+    <t>太清真人</t>
+  </si>
+  <si>
     <t>梦蛇灵儿</t>
   </si>
   <si>
-    <t>剑圣</t>
-  </si>
-  <si>
-    <t>掌门逍遥</t>
-  </si>
-  <si>
     <t>海棠夫人</t>
   </si>
   <si>
-    <t>酒剑仙</t>
-  </si>
-  <si>
-    <t>一贫</t>
-  </si>
-  <si>
-    <t>徐长卿</t>
-  </si>
-  <si>
-    <t>太武</t>
-  </si>
-  <si>
     <t>铁笔</t>
   </si>
   <si>
-    <t>谢沧行</t>
-  </si>
-  <si>
     <t>盛尊武</t>
   </si>
   <si>
-    <t>姜承</t>
-  </si>
-  <si>
     <t>梦蛇紫萱</t>
   </si>
   <si>
+    <t>越祈</t>
+  </si>
+  <si>
+    <t>公主龙葵</t>
+  </si>
+  <si>
+    <t>太子龙阳</t>
+  </si>
+  <si>
     <t>魔尊重楼</t>
   </si>
   <si>
-    <t>太子龙阳</t>
-  </si>
-  <si>
-    <t>公主龙葵</t>
+    <t>掌门长卿</t>
+  </si>
+  <si>
+    <t>藏锋</t>
+  </si>
+  <si>
+    <t>飞蓬</t>
   </si>
   <si>
     <t>重楼</t>
   </si>
   <si>
-    <t>飞蓬</t>
-  </si>
-  <si>
-    <t>景天</t>
-  </si>
-  <si>
-    <t>掌门长卿</t>
-  </si>
-  <si>
-    <t>星璇</t>
-  </si>
-  <si>
     <t>厉江流</t>
   </si>
   <si>
     <t>夙莘</t>
   </si>
   <si>
-    <t>太清真人</t>
+    <t>居十方</t>
+  </si>
+  <si>
+    <t>葛清霏</t>
   </si>
   <si>
     <t>宗炼</t>
@@ -581,9 +635,6 @@
     <t>重光</t>
   </si>
   <si>
-    <t>青阳</t>
-  </si>
-  <si>
     <t>奚仲</t>
   </si>
   <si>
@@ -593,81 +644,48 @@
     <t>婵幽</t>
   </si>
   <si>
-    <t>句芒</t>
-  </si>
-  <si>
-    <t>衔烛之龙</t>
-  </si>
-  <si>
-    <t>夙玉</t>
-  </si>
-  <si>
-    <t>云天青</t>
-  </si>
-  <si>
-    <t>玄霄</t>
-  </si>
-  <si>
     <t>青石</t>
   </si>
   <si>
-    <t>凌音</t>
-  </si>
-  <si>
     <t>玉书</t>
   </si>
   <si>
-    <t>龙幽</t>
-  </si>
-  <si>
-    <t>岚翼</t>
-  </si>
-  <si>
-    <t>火灵炎舞</t>
-  </si>
-  <si>
-    <t>巨龙穹武</t>
-  </si>
-  <si>
-    <t>龙溟</t>
-  </si>
-  <si>
-    <t>夏侯瑾轩</t>
-  </si>
-  <si>
-    <t>皇甫卓</t>
-  </si>
-  <si>
     <t>归墟界督</t>
   </si>
   <si>
     <t>六</t>
   </si>
   <si>
+    <t>忘尘司命</t>
+  </si>
+  <si>
+    <t>明绣</t>
+  </si>
+  <si>
+    <t>祝圄</t>
+  </si>
+  <si>
     <t>宿何</t>
   </si>
   <si>
-    <t>忘尘司命</t>
-  </si>
-  <si>
-    <t>藏锋</t>
+    <t>越今朝</t>
+  </si>
+  <si>
+    <t>顾寒江</t>
   </si>
   <si>
     <t>洛埋名</t>
   </si>
   <si>
+    <t>洛昭言</t>
+  </si>
+  <si>
     <t>临渊</t>
   </si>
   <si>
     <t>聆夜</t>
   </si>
   <si>
-    <t>祝圄</t>
-  </si>
-  <si>
-    <t>顾寒江</t>
-  </si>
-  <si>
     <t>朔漩</t>
   </si>
   <si>
@@ -677,25 +695,7 @@
     <t>绮里小嫒</t>
   </si>
   <si>
-    <t>葛清霏</t>
-  </si>
-  <si>
     <t>扁络桓</t>
-  </si>
-  <si>
-    <t>居十方</t>
-  </si>
-  <si>
-    <t>明绣</t>
-  </si>
-  <si>
-    <t>洛昭言</t>
-  </si>
-  <si>
-    <t>越祈</t>
-  </si>
-  <si>
-    <t>越今朝</t>
   </si>
 </sst>
 </file>
@@ -703,10 +703,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -714,22 +714,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,8 +732,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,14 +762,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,30 +786,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,6 +823,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -854,8 +838,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,121 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +888,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,7 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,13 +948,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,13 +1032,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,41 +1064,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,6 +1090,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1129,11 +1108,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,6 +1146,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1169,10 +1169,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,133 +1181,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2632,7 +2632,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
@@ -2661,8 +2661,17 @@
       <c r="I2" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="J2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -2676,8 +2685,17 @@
       <c r="F3" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
@@ -2697,8 +2715,17 @@
       <c r="H4" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
@@ -2718,8 +2745,17 @@
       <c r="H5" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="J5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -2736,8 +2772,17 @@
       <c r="G6" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
@@ -2757,8 +2802,17 @@
       <c r="H7" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="J7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
@@ -2775,8 +2829,17 @@
       <c r="G8" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -2793,8 +2856,17 @@
       <c r="G9" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="J9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>124</v>
       </c>
@@ -2817,8 +2889,17 @@
       <c r="G10" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="J10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>122</v>
       </c>
@@ -2827,43 +2908,61 @@
         <v>121</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>109</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>127</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>116</v>
@@ -2872,10 +2971,19 @@
         <v>123</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
@@ -2898,10 +3006,19 @@
       <c r="I14" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -2917,12 +3034,21 @@
         <v>123</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -2931,82 +3057,322 @@
         <f>COUNTA(A16:A23)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1">
         <f>COUNTA(A24:A27)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -3015,40 +3381,157 @@
         <f>COUNTA(A28:A33)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
@@ -3057,16 +3540,64 @@
         <f>COUNTA(A34:A35)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
@@ -3075,48 +3606,222 @@
         <f>COUNTA(A36:A43)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
@@ -3202,9 +3907,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -3214,64 +3919,91 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
@@ -3294,52 +4026,79 @@
       <c r="I5" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3352,70 +4111,97 @@
         <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>186</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>123</v>
@@ -3423,10 +4209,19 @@
       <c r="H11" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="J11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
@@ -3435,100 +4230,457 @@
         <f>COUNTA(A12:A22)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1">
         <f>COUNTA(A23:A26)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="G25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -3537,88 +4689,418 @@
         <f>COUNTA(A27:A40)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="F30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>31</v>
@@ -3627,64 +5109,313 @@
         <f>COUNTA(A41:A50)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="G49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
@@ -3693,174 +5424,807 @@
         <f>COUNTA(A51:A58)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="E56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C59" s="1">
         <f>COUNTA(A59:A78)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
+      <c r="E72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
+      <c r="E74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="J74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -703,10 +703,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -732,15 +732,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,6 +747,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -762,15 +771,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,17 +787,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -823,10 +824,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -838,9 +840,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,14 +856,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,37 +870,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +912,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,13 +972,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,55 +1026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,49 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,39 +1061,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1124,6 +1091,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1134,15 +1116,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,6 +1134,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1169,10 +1169,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,19 +1181,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,13 +1202,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1220,94 +1220,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2585,7 +2585,9 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3860,7 +3862,9 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3973,7 +3977,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>185</v>
       </c>
@@ -4002,8 +4006,11 @@
       <c r="L4" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
@@ -4035,6 +4042,9 @@
       <c r="L5" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
@@ -4069,7 +4079,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
@@ -4095,8 +4105,11 @@
       <c r="L7" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>179</v>
       </c>
@@ -4131,8 +4144,11 @@
       <c r="L8" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>182</v>
       </c>
@@ -4161,6 +4177,9 @@
       <c r="L9" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
@@ -4219,7 +4238,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>189</v>
       </c>
@@ -4257,6 +4276,9 @@
       <c r="L12" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
@@ -4357,7 +4379,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>197</v>
       </c>
@@ -4383,6 +4405,9 @@
       <c r="L16" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
@@ -4594,7 +4619,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>194</v>
       </c>
@@ -4626,6 +4651,9 @@
       <c r="L24" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
@@ -4711,7 +4739,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>199</v>
       </c>
@@ -4737,6 +4765,9 @@
       <c r="L28" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
@@ -5038,7 +5069,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>162</v>
       </c>
@@ -5067,6 +5098,9 @@
       <c r="L39" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
@@ -5134,7 +5168,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>143</v>
       </c>
@@ -5166,8 +5200,11 @@
       <c r="L42" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -5199,6 +5236,9 @@
       <c r="L43" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
@@ -5233,7 +5273,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>171</v>
       </c>
@@ -5256,8 +5296,11 @@
       <c r="L45" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>142</v>
       </c>
@@ -5289,8 +5332,11 @@
       <c r="L46" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>187</v>
       </c>
@@ -5316,6 +5362,9 @@
       <c r="L47" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
@@ -5581,7 +5630,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>177</v>
       </c>
@@ -5607,6 +5656,9 @@
       <c r="L57" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
@@ -6226,13 +6278,17 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C79">
         <f>SUM(C2:C78)</f>
         <v>77</v>
+      </c>
+      <c r="M79">
+        <f>SUM(M2:M78)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -705,8 +705,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -714,6 +714,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,9 +739,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,41 +761,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -801,8 +791,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,19 +815,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -840,6 +845,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -847,15 +853,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,13 +870,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +912,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,13 +942,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,13 +972,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,25 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,91 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,11 +1066,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,17 +1127,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,48 +1161,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1169,10 +1169,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,137 +1181,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,6 +1320,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1650,13 +1653,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="3" width="5.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" s="3" customFormat="1" spans="1:3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1667,7 +1673,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <f t="shared" ref="C2:C6" si="0">COUNTA(A2:A2)</f>
         <v>1</v>
       </c>
@@ -1679,7 +1685,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1691,7 +1697,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <f>COUNTA(A4:A5)</f>
         <v>2</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -1710,7 +1716,7 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1746,14 +1752,15 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="3" max="3" width="9" style="2"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1854,12 +1861,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="3" width="5.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1981,12 +1991,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="3" width="5.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2218,12 +2231,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="3" width="5.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2422,12 +2438,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="3" width="5.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2592,8 +2611,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
     <col min="4" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:13">
@@ -3869,8 +3891,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
     <col min="4" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:13">

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -703,10 +703,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -717,9 +717,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,22 +739,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,18 +754,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,7 +772,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,9 +786,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,7 +803,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,9 +816,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,17 +853,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,25 +870,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,31 +912,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,7 +936,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +960,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,13 +1014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,61 +1044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,9 +1066,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,15 +1105,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1108,6 +1116,33 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,41 +1161,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1169,10 +1169,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,137 +1181,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,9 +1320,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1657,8 +1654,7 @@
     <col min="2" max="3" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:3">
-      <c r="A1" s="1"/>
+    <row r="1" s="1" customFormat="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,8 +1669,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
-        <f t="shared" ref="C2:C6" si="0">COUNTA(A2:A2)</f>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1685,8 +1680,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" si="0"/>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1697,8 +1691,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
-        <f>COUNTA(A4:A5)</f>
+      <c r="C4" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1707,7 +1700,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
@@ -1716,8 +1709,7 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
+      <c r="C6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1772,7 +1764,6 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <f>COUNTA(A2:A6)</f>
         <v>5</v>
       </c>
     </row>
@@ -1808,7 +1799,6 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <f>COUNTA(A7:A10)</f>
         <v>4</v>
       </c>
     </row>
@@ -1881,7 +1871,6 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <f>COUNTA(A2:A6)</f>
         <v>5</v>
       </c>
     </row>
@@ -1921,7 +1910,6 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <f>COUNTA(A7:A9)</f>
         <v>3</v>
       </c>
     </row>
@@ -1947,7 +1935,6 @@
         <v>31</v>
       </c>
       <c r="C10" s="2">
-        <f>COUNTA(A10:A11)</f>
         <v>2</v>
       </c>
     </row>
@@ -2011,7 +1998,6 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <f>COUNTA(A2:A15)</f>
         <v>14</v>
       </c>
     </row>
@@ -2114,7 +2100,6 @@
         <v>5</v>
       </c>
       <c r="C16" s="2">
-        <f>COUNTA(A16:A16)</f>
         <v>1</v>
       </c>
     </row>
@@ -2126,7 +2111,6 @@
         <v>18</v>
       </c>
       <c r="C17" s="2">
-        <f>COUNTA(A17:A23)</f>
         <v>7</v>
       </c>
     </row>
@@ -2180,7 +2164,6 @@
         <v>31</v>
       </c>
       <c r="C24" s="2">
-        <f>COUNTA(A24:A26)</f>
         <v>3</v>
       </c>
     </row>
@@ -2251,7 +2234,6 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <f>COUNTA(A2:A13)</f>
         <v>12</v>
       </c>
     </row>
@@ -2340,7 +2322,6 @@
         <v>18</v>
       </c>
       <c r="C14" s="2">
-        <f>COUNTA(A14:A16)</f>
         <v>3</v>
       </c>
     </row>
@@ -2366,7 +2347,6 @@
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <f>COUNTA(A17:A18)</f>
         <v>2</v>
       </c>
     </row>
@@ -2385,7 +2365,6 @@
         <v>10</v>
       </c>
       <c r="C19" s="2">
-        <f>COUNTA(A19:A21)</f>
         <v>3</v>
       </c>
     </row>
@@ -2458,7 +2437,6 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <f>COUNTA(A2:A12)</f>
         <v>11</v>
       </c>
     </row>
@@ -2540,7 +2518,6 @@
         <v>18</v>
       </c>
       <c r="C13" s="2">
-        <f>COUNTA(A13:A16)</f>
         <v>4</v>
       </c>
     </row>
@@ -2573,7 +2550,6 @@
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <f>COUNTA(A17:A17)</f>
         <v>1</v>
       </c>
     </row>
@@ -2664,7 +2640,6 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <f>COUNTA(A2:A9)</f>
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2898,7 +2873,6 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <f>COUNTA(A10:A15)</f>
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3078,7 +3052,6 @@
         <v>18</v>
       </c>
       <c r="C16" s="1">
-        <f>COUNTA(A16:A23)</f>
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3297,7 +3270,6 @@
         <v>152</v>
       </c>
       <c r="C24" s="1">
-        <f>COUNTA(A24:A27)</f>
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3402,7 +3374,6 @@
         <v>7</v>
       </c>
       <c r="C28" s="1">
-        <f>COUNTA(A28:A33)</f>
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3561,7 +3532,6 @@
         <v>31</v>
       </c>
       <c r="C34" s="1">
-        <f>COUNTA(A34:A35)</f>
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3627,7 +3597,6 @@
         <v>10</v>
       </c>
       <c r="C36" s="1">
-        <f>COUNTA(A36:A43)</f>
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3944,7 +3913,6 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <f>COUNTA(A2:A7)</f>
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4142,7 +4110,6 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <f>COUNTA(A8:A11)</f>
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -4271,7 +4238,6 @@
         <v>18</v>
       </c>
       <c r="C12" s="1">
-        <f>COUNTA(A12:A22)</f>
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -4616,7 +4582,6 @@
         <v>152</v>
       </c>
       <c r="C23" s="1">
-        <f>COUNTA(A23:A26)</f>
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4739,7 +4704,6 @@
         <v>7</v>
       </c>
       <c r="C27" s="1">
-        <f>COUNTA(A27:A40)</f>
         <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -5165,7 +5129,6 @@
         <v>31</v>
       </c>
       <c r="C41" s="1">
-        <f>COUNTA(A41:A50)</f>
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -5495,7 +5458,6 @@
         <v>10</v>
       </c>
       <c r="C51" s="1">
-        <f>COUNTA(A51:A58)</f>
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -5717,7 +5679,6 @@
         <v>210</v>
       </c>
       <c r="C59" s="1">
-        <f>COUNTA(A59:A78)</f>
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -29,532 +29,544 @@
     <t>计数</t>
   </si>
   <si>
+    <t>魉妹</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>璇玑</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>怀朔</t>
+  </si>
+  <si>
+    <t>欧阳英</t>
+  </si>
+  <si>
+    <t>五前</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>市井混混</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>锤护院</t>
+  </si>
+  <si>
+    <t>罗汉腿</t>
+  </si>
+  <si>
+    <t>暗器手</t>
+  </si>
+  <si>
+    <t>拜月教徒</t>
+  </si>
+  <si>
+    <t>枪卒</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>霹雳武士</t>
+  </si>
+  <si>
+    <t>瘟神</t>
+  </si>
+  <si>
+    <t>赵无延</t>
+  </si>
+  <si>
+    <t>金蟾</t>
+  </si>
+  <si>
+    <t>蛇妖男</t>
+  </si>
+  <si>
+    <t>五毒巨蝎</t>
+  </si>
+  <si>
+    <t>书中仙</t>
+  </si>
+  <si>
+    <t>拜月使者</t>
+  </si>
+  <si>
+    <t>精精</t>
+  </si>
+  <si>
+    <t>兵器谱</t>
+  </si>
+  <si>
+    <t>赵文昌</t>
+  </si>
+  <si>
+    <t>小小蛮</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>双头冰蛇</t>
+  </si>
+  <si>
+    <t>小虎子</t>
+  </si>
+  <si>
+    <t>李大娘</t>
+  </si>
+  <si>
+    <t>姬三娘</t>
+  </si>
+  <si>
+    <t>唐钰</t>
+  </si>
+  <si>
+    <t>暗香</t>
+  </si>
+  <si>
+    <t>树妖</t>
+  </si>
+  <si>
+    <t>智杖和尚</t>
+  </si>
+  <si>
+    <t>九头蛇</t>
+  </si>
+  <si>
+    <t>狐妖女</t>
+  </si>
+  <si>
+    <t>毒娘子</t>
+  </si>
+  <si>
+    <t>香兰</t>
+  </si>
+  <si>
+    <t>刘晋元</t>
+  </si>
+  <si>
+    <t>韩医仙</t>
+  </si>
+  <si>
+    <t>韩梦慈</t>
+  </si>
+  <si>
+    <t>喻南松</t>
+  </si>
+  <si>
+    <t>巨灵神</t>
+  </si>
+  <si>
+    <t>古藤精</t>
+  </si>
+  <si>
+    <t>古藤老人</t>
+  </si>
+  <si>
+    <t>魔披风</t>
+  </si>
+  <si>
+    <t>唐泰</t>
+  </si>
+  <si>
+    <t>唐益</t>
+  </si>
+  <si>
+    <t>罗如烈</t>
+  </si>
+  <si>
+    <t>耀甲</t>
+  </si>
+  <si>
+    <t>海富贵</t>
+  </si>
+  <si>
+    <t>雪纹兽</t>
+  </si>
+  <si>
+    <t>智修大师</t>
+  </si>
+  <si>
+    <t>小石头</t>
+  </si>
+  <si>
+    <t>巫王</t>
+  </si>
+  <si>
+    <t>火麒麟</t>
+  </si>
+  <si>
+    <t>骷髅将军</t>
+  </si>
+  <si>
+    <t>彩依</t>
+  </si>
+  <si>
+    <t>盖罗娇</t>
+  </si>
+  <si>
+    <t>姜婉儿</t>
+  </si>
+  <si>
+    <t>姥姥</t>
+  </si>
+  <si>
+    <t>木道人</t>
+  </si>
+  <si>
+    <t>金翅凤凰</t>
+  </si>
+  <si>
+    <t>金蟾鬼母</t>
+  </si>
+  <si>
+    <t>苍萤</t>
+  </si>
+  <si>
+    <t>万玉枝</t>
+  </si>
+  <si>
+    <t>炎邪女</t>
+  </si>
+  <si>
+    <t>欧阳慧</t>
+  </si>
+  <si>
+    <t>夏孤临</t>
+  </si>
+  <si>
+    <t>腥鬼</t>
+  </si>
+  <si>
+    <t>夏侯韬</t>
+  </si>
+  <si>
+    <t>欧阳倩</t>
+  </si>
+  <si>
+    <t>圣姑</t>
+  </si>
+  <si>
+    <t>林天南</t>
+  </si>
+  <si>
+    <t>土神龙</t>
+  </si>
+  <si>
+    <t>冰神龙</t>
+  </si>
+  <si>
+    <t>雷神龙</t>
+  </si>
+  <si>
+    <t>火神龙</t>
+  </si>
+  <si>
+    <t>风神龙</t>
+  </si>
+  <si>
+    <t>姜清</t>
+  </si>
+  <si>
+    <t>石长老</t>
+  </si>
+  <si>
+    <t>赤鬼王</t>
+  </si>
+  <si>
+    <t>地魔兽</t>
+  </si>
+  <si>
+    <t>敖耶神牛</t>
+  </si>
+  <si>
+    <t>神将军</t>
+  </si>
+  <si>
+    <t>云霆</t>
+  </si>
+  <si>
+    <t>溪风</t>
+  </si>
+  <si>
+    <t>炎帝侍</t>
+  </si>
+  <si>
+    <t>仙缘1</t>
+  </si>
+  <si>
+    <t>仙缘2</t>
+  </si>
+  <si>
+    <t>仙缘31</t>
+  </si>
+  <si>
+    <t>仙缘32</t>
+  </si>
+  <si>
+    <t>仙缘33</t>
+  </si>
+  <si>
+    <t>仙缘34</t>
+  </si>
+  <si>
+    <t>绝技1</t>
+  </si>
+  <si>
+    <t>绝技2</t>
+  </si>
+  <si>
+    <t>绝技3</t>
+  </si>
+  <si>
+    <t>云裳</t>
+  </si>
+  <si>
+    <t>巫后</t>
+  </si>
+  <si>
+    <t>夕瑶</t>
+  </si>
+  <si>
+    <t>水魔兽</t>
+  </si>
+  <si>
+    <t>紫萱</t>
+  </si>
+  <si>
+    <t>赵灵儿</t>
+  </si>
+  <si>
+    <t>李忆如</t>
+  </si>
+  <si>
+    <t>小蛮</t>
+  </si>
+  <si>
+    <t>镇狱明王</t>
+  </si>
+  <si>
+    <t>邪剑仙</t>
+  </si>
+  <si>
+    <t>拜月教主</t>
+  </si>
+  <si>
+    <t>雷元戈</t>
+  </si>
+  <si>
+    <t>李逍遥</t>
+  </si>
+  <si>
+    <t>林月如</t>
+  </si>
+  <si>
+    <t>阿奴</t>
+  </si>
+  <si>
+    <t>瑕</t>
+  </si>
+  <si>
+    <t>苏媚</t>
+  </si>
+  <si>
+    <t>草谷</t>
+  </si>
+  <si>
+    <t>天鬼皇</t>
+  </si>
+  <si>
+    <t>孔磷</t>
+  </si>
+  <si>
+    <t>王小虎</t>
+  </si>
+  <si>
+    <t>天魑皇</t>
+  </si>
+  <si>
+    <t>帝江神兽</t>
+  </si>
+  <si>
+    <t>青阳</t>
+  </si>
+  <si>
+    <t>千叶禅师</t>
+  </si>
+  <si>
+    <t>天妖皇</t>
+  </si>
+  <si>
+    <t>燎日</t>
+  </si>
+  <si>
+    <t>沈欺霜</t>
+  </si>
+  <si>
+    <t>冰晶女</t>
+  </si>
+  <si>
+    <t>妖灵雪女</t>
+  </si>
+  <si>
+    <t>火灵炎舞</t>
+  </si>
+  <si>
+    <t>熔岩兽王</t>
+  </si>
+  <si>
+    <t>黑豹</t>
+  </si>
+  <si>
+    <t>衔烛之龙</t>
+  </si>
+  <si>
+    <t>句芒</t>
+  </si>
+  <si>
+    <t>巨龙穹武</t>
+  </si>
+  <si>
+    <t>清微</t>
+  </si>
+  <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>一贫</t>
+  </si>
+  <si>
+    <t>太武</t>
+  </si>
+  <si>
+    <t>红葵</t>
+  </si>
+  <si>
+    <t>蓝葵</t>
+  </si>
+  <si>
+    <t>结萝</t>
+  </si>
+  <si>
+    <t>慕容紫英</t>
+  </si>
+  <si>
+    <t>唐雪见</t>
+  </si>
+  <si>
+    <t>景天</t>
+  </si>
+  <si>
+    <t>花楹</t>
+  </si>
+  <si>
+    <t>王蓬絮</t>
+  </si>
+  <si>
+    <t>三外</t>
+  </si>
+  <si>
+    <t>温慧</t>
+  </si>
+  <si>
+    <t>南宫煌</t>
+  </si>
+  <si>
+    <t>星璇</t>
+  </si>
+  <si>
+    <t>酒剑仙</t>
+  </si>
+  <si>
+    <t>岚翼</t>
+  </si>
+  <si>
+    <t>夙瑶</t>
+  </si>
+  <si>
+    <t>韩菱纱</t>
+  </si>
+  <si>
+    <t>柳梦璃</t>
+  </si>
+  <si>
+    <t>云天河</t>
+  </si>
+  <si>
+    <t>云天青</t>
+  </si>
+  <si>
+    <t>玄霄</t>
+  </si>
+  <si>
+    <t>夙玉</t>
+  </si>
+  <si>
+    <t>姜云凡</t>
+  </si>
+  <si>
+    <t>唐雨柔</t>
+  </si>
+  <si>
+    <t>皇甫卓</t>
+  </si>
+  <si>
+    <t>龙幽</t>
+  </si>
+  <si>
+    <t>凌波</t>
+  </si>
+  <si>
+    <t>龙溟</t>
+  </si>
+  <si>
+    <t>凌音</t>
+  </si>
+  <si>
+    <t>暮菖兰</t>
+  </si>
+  <si>
+    <t>枯木</t>
+  </si>
+  <si>
+    <t>姜承</t>
+  </si>
+  <si>
+    <t>厉岩</t>
+  </si>
+  <si>
+    <t>谢沧行</t>
+  </si>
+  <si>
+    <t>夏侯瑾轩</t>
+  </si>
+  <si>
     <t>南蛮王</t>
   </si>
   <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>魉妹</t>
-  </si>
-  <si>
-    <t>二</t>
-  </si>
-  <si>
-    <t>璇玑</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>怀朔</t>
-  </si>
-  <si>
-    <t>欧阳英</t>
-  </si>
-  <si>
-    <t>五前</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>市井混混</t>
-  </si>
-  <si>
-    <t>锤护院</t>
-  </si>
-  <si>
-    <t>罗汉腿</t>
-  </si>
-  <si>
-    <t>暗器手</t>
-  </si>
-  <si>
-    <t>拜月教徒</t>
-  </si>
-  <si>
-    <t>枪卒</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>霹雳武士</t>
-  </si>
-  <si>
-    <t>瘟神</t>
-  </si>
-  <si>
-    <t>赵无延</t>
-  </si>
-  <si>
-    <t>金蟾</t>
-  </si>
-  <si>
-    <t>蛇妖男</t>
-  </si>
-  <si>
-    <t>五毒巨蝎</t>
-  </si>
-  <si>
-    <t>书中仙</t>
-  </si>
-  <si>
-    <t>拜月使者</t>
-  </si>
-  <si>
-    <t>精精</t>
-  </si>
-  <si>
-    <t>兵器谱</t>
-  </si>
-  <si>
-    <t>赵文昌</t>
-  </si>
-  <si>
-    <t>小小蛮</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>双头冰蛇</t>
-  </si>
-  <si>
-    <t>小虎子</t>
-  </si>
-  <si>
-    <t>李大娘</t>
-  </si>
-  <si>
-    <t>姬三娘</t>
-  </si>
-  <si>
-    <t>唐钰</t>
-  </si>
-  <si>
-    <t>暗香</t>
-  </si>
-  <si>
-    <t>树妖</t>
-  </si>
-  <si>
-    <t>智杖和尚</t>
-  </si>
-  <si>
-    <t>九头蛇</t>
-  </si>
-  <si>
-    <t>狐妖女</t>
-  </si>
-  <si>
-    <t>毒娘子</t>
-  </si>
-  <si>
-    <t>香兰</t>
-  </si>
-  <si>
-    <t>刘晋元</t>
-  </si>
-  <si>
-    <t>韩医仙</t>
-  </si>
-  <si>
-    <t>韩梦慈</t>
-  </si>
-  <si>
-    <t>喻南松</t>
-  </si>
-  <si>
-    <t>巨灵神</t>
-  </si>
-  <si>
-    <t>古藤精</t>
-  </si>
-  <si>
-    <t>古藤老人</t>
-  </si>
-  <si>
-    <t>魔披风</t>
-  </si>
-  <si>
-    <t>唐泰</t>
-  </si>
-  <si>
-    <t>唐益</t>
-  </si>
-  <si>
-    <t>罗如烈</t>
-  </si>
-  <si>
-    <t>耀甲</t>
-  </si>
-  <si>
-    <t>海富贵</t>
-  </si>
-  <si>
-    <t>雪纹兽</t>
-  </si>
-  <si>
-    <t>智修大师</t>
-  </si>
-  <si>
-    <t>小石头</t>
-  </si>
-  <si>
-    <t>巫王</t>
-  </si>
-  <si>
-    <t>火麒麟</t>
-  </si>
-  <si>
-    <t>骷髅将军</t>
-  </si>
-  <si>
-    <t>彩依</t>
-  </si>
-  <si>
-    <t>盖罗娇</t>
-  </si>
-  <si>
-    <t>姜婉儿</t>
-  </si>
-  <si>
-    <t>姥姥</t>
-  </si>
-  <si>
-    <t>木道人</t>
-  </si>
-  <si>
-    <t>金翅凤凰</t>
-  </si>
-  <si>
-    <t>金蟾鬼母</t>
-  </si>
-  <si>
-    <t>苍萤</t>
-  </si>
-  <si>
-    <t>万玉枝</t>
-  </si>
-  <si>
-    <t>炎邪女</t>
-  </si>
-  <si>
-    <t>欧阳慧</t>
-  </si>
-  <si>
-    <t>夏孤临</t>
-  </si>
-  <si>
-    <t>腥鬼</t>
-  </si>
-  <si>
-    <t>夏侯韬</t>
-  </si>
-  <si>
-    <t>欧阳倩</t>
-  </si>
-  <si>
-    <t>圣姑</t>
-  </si>
-  <si>
-    <t>林天南</t>
-  </si>
-  <si>
-    <t>土神龙</t>
-  </si>
-  <si>
-    <t>冰神龙</t>
-  </si>
-  <si>
-    <t>雷神龙</t>
-  </si>
-  <si>
-    <t>火神龙</t>
-  </si>
-  <si>
-    <t>风神龙</t>
-  </si>
-  <si>
-    <t>姜清</t>
-  </si>
-  <si>
-    <t>石长老</t>
-  </si>
-  <si>
-    <t>赤鬼王</t>
-  </si>
-  <si>
-    <t>地魔兽</t>
-  </si>
-  <si>
-    <t>敖耶神牛</t>
-  </si>
-  <si>
-    <t>神将军</t>
-  </si>
-  <si>
-    <t>云霆</t>
-  </si>
-  <si>
-    <t>溪风</t>
-  </si>
-  <si>
-    <t>炎帝侍</t>
-  </si>
-  <si>
-    <t>仙缘1</t>
-  </si>
-  <si>
-    <t>仙缘2</t>
-  </si>
-  <si>
-    <t>仙缘31</t>
-  </si>
-  <si>
-    <t>仙缘32</t>
-  </si>
-  <si>
-    <t>仙缘33</t>
-  </si>
-  <si>
-    <t>仙缘34</t>
-  </si>
-  <si>
-    <t>绝技1</t>
-  </si>
-  <si>
-    <t>绝技2</t>
-  </si>
-  <si>
-    <t>绝技3</t>
-  </si>
-  <si>
-    <t>云裳</t>
-  </si>
-  <si>
-    <t>巫后</t>
-  </si>
-  <si>
-    <t>夕瑶</t>
-  </si>
-  <si>
-    <t>水魔兽</t>
-  </si>
-  <si>
-    <t>紫萱</t>
-  </si>
-  <si>
-    <t>赵灵儿</t>
-  </si>
-  <si>
-    <t>李忆如</t>
-  </si>
-  <si>
-    <t>小蛮</t>
-  </si>
-  <si>
-    <t>镇狱明王</t>
-  </si>
-  <si>
-    <t>邪剑仙</t>
-  </si>
-  <si>
-    <t>拜月教主</t>
-  </si>
-  <si>
-    <t>雷元戈</t>
-  </si>
-  <si>
-    <t>李逍遥</t>
-  </si>
-  <si>
-    <t>林月如</t>
-  </si>
-  <si>
-    <t>阿奴</t>
-  </si>
-  <si>
-    <t>瑕</t>
-  </si>
-  <si>
-    <t>苏媚</t>
-  </si>
-  <si>
-    <t>草谷</t>
-  </si>
-  <si>
-    <t>天鬼皇</t>
-  </si>
-  <si>
-    <t>孔磷</t>
-  </si>
-  <si>
-    <t>王小虎</t>
-  </si>
-  <si>
-    <t>天魑皇</t>
-  </si>
-  <si>
-    <t>帝江神兽</t>
-  </si>
-  <si>
-    <t>青阳</t>
-  </si>
-  <si>
-    <t>千叶禅师</t>
-  </si>
-  <si>
-    <t>天妖皇</t>
-  </si>
-  <si>
-    <t>燎日</t>
-  </si>
-  <si>
-    <t>沈欺霜</t>
-  </si>
-  <si>
-    <t>冰晶女</t>
-  </si>
-  <si>
-    <t>妖灵雪女</t>
-  </si>
-  <si>
-    <t>火灵炎舞</t>
-  </si>
-  <si>
-    <t>熔岩兽王</t>
-  </si>
-  <si>
-    <t>黑豹</t>
-  </si>
-  <si>
-    <t>衔烛之龙</t>
-  </si>
-  <si>
-    <t>句芒</t>
-  </si>
-  <si>
-    <t>巨龙穹武</t>
-  </si>
-  <si>
-    <t>清微</t>
-  </si>
-  <si>
-    <t>徐长卿</t>
-  </si>
-  <si>
-    <t>剑圣</t>
-  </si>
-  <si>
-    <t>一贫</t>
-  </si>
-  <si>
-    <t>太武</t>
-  </si>
-  <si>
-    <t>红葵</t>
-  </si>
-  <si>
-    <t>蓝葵</t>
-  </si>
-  <si>
-    <t>结萝</t>
-  </si>
-  <si>
-    <t>慕容紫英</t>
-  </si>
-  <si>
-    <t>唐雪见</t>
-  </si>
-  <si>
-    <t>景天</t>
-  </si>
-  <si>
-    <t>花楹</t>
-  </si>
-  <si>
-    <t>王蓬絮</t>
-  </si>
-  <si>
-    <t>三外</t>
-  </si>
-  <si>
-    <t>温慧</t>
-  </si>
-  <si>
-    <t>南宫煌</t>
-  </si>
-  <si>
-    <t>星璇</t>
-  </si>
-  <si>
-    <t>酒剑仙</t>
-  </si>
-  <si>
-    <t>岚翼</t>
-  </si>
-  <si>
-    <t>夙瑶</t>
-  </si>
-  <si>
-    <t>韩菱纱</t>
-  </si>
-  <si>
-    <t>柳梦璃</t>
-  </si>
-  <si>
-    <t>云天河</t>
-  </si>
-  <si>
-    <t>云天青</t>
-  </si>
-  <si>
-    <t>玄霄</t>
-  </si>
-  <si>
-    <t>夙玉</t>
-  </si>
-  <si>
-    <t>姜云凡</t>
-  </si>
-  <si>
-    <t>唐雨柔</t>
-  </si>
-  <si>
-    <t>皇甫卓</t>
-  </si>
-  <si>
-    <t>龙幽</t>
-  </si>
-  <si>
-    <t>凌波</t>
-  </si>
-  <si>
-    <t>龙溟</t>
-  </si>
-  <si>
-    <t>凌音</t>
-  </si>
-  <si>
-    <t>暮菖兰</t>
-  </si>
-  <si>
-    <t>枯木</t>
-  </si>
-  <si>
-    <t>姜承</t>
-  </si>
-  <si>
-    <t>厉岩</t>
-  </si>
-  <si>
-    <t>谢沧行</t>
-  </si>
-  <si>
-    <t>夏侯瑾轩</t>
+    <t>海棠夫人</t>
+  </si>
+  <si>
+    <t>厉江流</t>
+  </si>
+  <si>
+    <t>灵月宫主</t>
+  </si>
+  <si>
+    <t>李三思</t>
   </si>
   <si>
     <t>葛巧菱</t>
@@ -563,12 +575,6 @@
     <t>柔情月如</t>
   </si>
   <si>
-    <t>李三思</t>
-  </si>
-  <si>
-    <t>灵月宫主</t>
-  </si>
-  <si>
     <t>掌门逍遥</t>
   </si>
   <si>
@@ -581,9 +587,6 @@
     <t>梦蛇灵儿</t>
   </si>
   <si>
-    <t>海棠夫人</t>
-  </si>
-  <si>
     <t>铁笔</t>
   </si>
   <si>
@@ -615,9 +618,6 @@
   </si>
   <si>
     <t>重楼</t>
-  </si>
-  <si>
-    <t>厉江流</t>
   </si>
   <si>
     <t>夙莘</t>
@@ -703,10 +703,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -717,8 +717,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,46 +817,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,24 +833,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,6 +846,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -823,39 +854,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,13 +870,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,19 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +978,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,43 +1038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,79 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,47 +1061,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1116,24 +1075,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,6 +1102,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1169,10 +1169,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,133 +1181,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1643,13 +1643,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="3" width="5.375" customWidth="1"/>
   </cols>
@@ -1681,51 +1681,40 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2">
-        <f>SUM(C2:C6)</f>
-        <v>5</v>
+      <c r="C6" s="2">
+        <f>SUM(C2:C5)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1758,10 +1747,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1769,34 +1758,34 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1804,25 +1793,25 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -1865,10 +1854,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1876,38 +1865,38 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1915,24 +1904,24 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1940,14 +1929,14 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -1992,10 +1981,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>14</v>
@@ -2003,101 +1992,101 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2105,10 +2094,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>7</v>
@@ -2116,52 +2105,52 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2169,21 +2158,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
         <f>SUM(C2:C26)</f>
@@ -2228,10 +2217,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
@@ -2239,87 +2228,87 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -2327,24 +2316,24 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -2352,17 +2341,17 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -2370,21 +2359,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2">
         <f>SUM(C2:C21)</f>
@@ -2431,10 +2420,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -2442,80 +2431,80 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -2523,31 +2512,31 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2555,7 +2544,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2">
         <f>SUM(C2:C17)</f>
@@ -2602,1223 +2591,1223 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="J16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="F29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="J29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="K31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="G32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="L40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="L41" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="H42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="K43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <f>SUM(C2:C43)</f>
@@ -3850,7 +3839,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3875,266 +3864,258 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>180</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -4142,737 +4123,745 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>123</v>
+        <v>187</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>173</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
+        <v>126</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M12">
+      <c r="I13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13">
         <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>193</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>196</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>192</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>107</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>196</v>
+        <v>107</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>197</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>122</v>
+        <v>193</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>154</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
+        <v>154</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
         <v>14</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
+      <c r="L28" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>162</v>
@@ -4880,59 +4869,59 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>206</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>206</v>
@@ -4940,62 +4929,62 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -5004,321 +4993,315 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="1">
+        <v>162</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="1">
         <v>10</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="L43" s="1" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="K44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>187</v>
+      <c r="G45" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>141</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -5326,316 +5309,325 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>110</v>
+        <v>207</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J50" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="1">
-        <v>8</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>135</v>
+        <v>107</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="E52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="J55" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>172</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G57" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>172</v>
@@ -5643,79 +5635,76 @@
       <c r="L57" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>146</v>
+        <v>188</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="1">
-        <v>20</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="1">
+        <v>20</v>
+      </c>
       <c r="D60" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>213</v>
@@ -5724,13 +5713,13 @@
         <v>211</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>213</v>
@@ -5738,83 +5727,86 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>213</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="J61" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="J62" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K62" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="J63" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>218</v>
@@ -5822,77 +5814,74 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="K64" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>213</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="J65" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>221</v>
@@ -5901,130 +5890,130 @@
         <v>219</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>224</v>
@@ -6032,59 +6021,59 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>222</v>
       </c>
       <c r="G71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="J71" s="1" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>222</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>223</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>222</v>
@@ -6092,116 +6081,116 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="H73" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="K73" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="L75" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="J76" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>215</v>
@@ -6209,92 +6198,122 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="K77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="J78" s="1" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>224</v>
       </c>
       <c r="L78" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79">
-        <f>SUM(C2:C78)</f>
-        <v>77</v>
-      </c>
-      <c r="M79">
-        <f>SUM(M2:M78)</f>
+      <c r="G79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <f>SUM(C2:C79)</f>
+        <v>78</v>
+      </c>
+      <c r="M80">
+        <f>SUM(M2:M79)</f>
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B40"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B78"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C27:C40"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="C59:C78"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B41"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="B60:B79"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C41"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="C60:C79"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
   <si>
     <t>出处</t>
   </si>
@@ -329,229 +329,232 @@
     <t>绝技3</t>
   </si>
   <si>
+    <t>巫后</t>
+  </si>
+  <si>
+    <t>夕瑶</t>
+  </si>
+  <si>
+    <t>水魔兽</t>
+  </si>
+  <si>
+    <t>紫萱</t>
+  </si>
+  <si>
+    <t>赵灵儿</t>
+  </si>
+  <si>
+    <t>李忆如</t>
+  </si>
+  <si>
+    <t>小蛮</t>
+  </si>
+  <si>
+    <t>镇狱明王</t>
+  </si>
+  <si>
+    <t>邪剑仙</t>
+  </si>
+  <si>
+    <t>拜月教主</t>
+  </si>
+  <si>
+    <t>雷元戈</t>
+  </si>
+  <si>
+    <t>李逍遥</t>
+  </si>
+  <si>
+    <t>林月如</t>
+  </si>
+  <si>
+    <t>阿奴</t>
+  </si>
+  <si>
+    <t>瑕</t>
+  </si>
+  <si>
+    <t>苏媚</t>
+  </si>
+  <si>
+    <t>草谷</t>
+  </si>
+  <si>
+    <t>天鬼皇</t>
+  </si>
+  <si>
+    <t>孔磷</t>
+  </si>
+  <si>
+    <t>王小虎</t>
+  </si>
+  <si>
+    <t>天魑皇</t>
+  </si>
+  <si>
+    <t>帝江神兽</t>
+  </si>
+  <si>
+    <t>青阳</t>
+  </si>
+  <si>
+    <t>千叶禅师</t>
+  </si>
+  <si>
+    <t>天妖皇</t>
+  </si>
+  <si>
+    <t>燎日</t>
+  </si>
+  <si>
+    <t>沈欺霜</t>
+  </si>
+  <si>
+    <t>冰晶女</t>
+  </si>
+  <si>
+    <t>妖灵雪女</t>
+  </si>
+  <si>
+    <t>火灵炎舞</t>
+  </si>
+  <si>
+    <t>熔岩兽王</t>
+  </si>
+  <si>
+    <t>黑豹</t>
+  </si>
+  <si>
+    <t>衔烛之龙</t>
+  </si>
+  <si>
+    <t>句芒</t>
+  </si>
+  <si>
+    <t>巨龙穹武</t>
+  </si>
+  <si>
+    <t>清微</t>
+  </si>
+  <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>一贫</t>
+  </si>
+  <si>
+    <t>太武</t>
+  </si>
+  <si>
+    <t>红葵</t>
+  </si>
+  <si>
+    <t>蓝葵</t>
+  </si>
+  <si>
+    <t>结萝</t>
+  </si>
+  <si>
+    <t>慕容紫英</t>
+  </si>
+  <si>
+    <t>唐雪见</t>
+  </si>
+  <si>
+    <t>景天</t>
+  </si>
+  <si>
+    <t>花楹</t>
+  </si>
+  <si>
+    <t>王蓬絮</t>
+  </si>
+  <si>
+    <t>三外</t>
+  </si>
+  <si>
+    <t>温慧</t>
+  </si>
+  <si>
+    <t>南宫煌</t>
+  </si>
+  <si>
+    <t>星璇</t>
+  </si>
+  <si>
+    <t>酒剑仙</t>
+  </si>
+  <si>
+    <t>岚翼</t>
+  </si>
+  <si>
+    <t>夙瑶</t>
+  </si>
+  <si>
+    <t>韩菱纱</t>
+  </si>
+  <si>
+    <t>柳梦璃</t>
+  </si>
+  <si>
+    <t>云天河</t>
+  </si>
+  <si>
+    <t>云天青</t>
+  </si>
+  <si>
+    <t>玄霄</t>
+  </si>
+  <si>
+    <t>夙玉</t>
+  </si>
+  <si>
+    <t>姜云凡</t>
+  </si>
+  <si>
+    <t>唐雨柔</t>
+  </si>
+  <si>
+    <t>皇甫卓</t>
+  </si>
+  <si>
+    <t>龙幽</t>
+  </si>
+  <si>
+    <t>凌波</t>
+  </si>
+  <si>
+    <t>龙溟</t>
+  </si>
+  <si>
+    <t>凌音</t>
+  </si>
+  <si>
+    <t>暮菖兰</t>
+  </si>
+  <si>
+    <t>枯木</t>
+  </si>
+  <si>
+    <t>姜承</t>
+  </si>
+  <si>
+    <t>厉岩</t>
+  </si>
+  <si>
+    <t>谢沧行</t>
+  </si>
+  <si>
+    <t>夏侯瑾轩</t>
+  </si>
+  <si>
     <t>云裳</t>
   </si>
   <si>
-    <t>巫后</t>
-  </si>
-  <si>
-    <t>夕瑶</t>
-  </si>
-  <si>
-    <t>水魔兽</t>
-  </si>
-  <si>
-    <t>紫萱</t>
-  </si>
-  <si>
-    <t>赵灵儿</t>
-  </si>
-  <si>
-    <t>李忆如</t>
-  </si>
-  <si>
-    <t>小蛮</t>
-  </si>
-  <si>
-    <t>镇狱明王</t>
-  </si>
-  <si>
-    <t>邪剑仙</t>
-  </si>
-  <si>
-    <t>拜月教主</t>
-  </si>
-  <si>
-    <t>雷元戈</t>
-  </si>
-  <si>
-    <t>李逍遥</t>
-  </si>
-  <si>
-    <t>林月如</t>
-  </si>
-  <si>
-    <t>阿奴</t>
-  </si>
-  <si>
-    <t>瑕</t>
-  </si>
-  <si>
-    <t>苏媚</t>
-  </si>
-  <si>
-    <t>草谷</t>
-  </si>
-  <si>
-    <t>天鬼皇</t>
-  </si>
-  <si>
-    <t>孔磷</t>
-  </si>
-  <si>
-    <t>王小虎</t>
-  </si>
-  <si>
-    <t>天魑皇</t>
-  </si>
-  <si>
-    <t>帝江神兽</t>
-  </si>
-  <si>
-    <t>青阳</t>
-  </si>
-  <si>
-    <t>千叶禅师</t>
-  </si>
-  <si>
-    <t>天妖皇</t>
-  </si>
-  <si>
-    <t>燎日</t>
-  </si>
-  <si>
-    <t>沈欺霜</t>
-  </si>
-  <si>
-    <t>冰晶女</t>
-  </si>
-  <si>
-    <t>妖灵雪女</t>
-  </si>
-  <si>
-    <t>火灵炎舞</t>
-  </si>
-  <si>
-    <t>熔岩兽王</t>
-  </si>
-  <si>
-    <t>黑豹</t>
-  </si>
-  <si>
-    <t>衔烛之龙</t>
-  </si>
-  <si>
-    <t>句芒</t>
-  </si>
-  <si>
-    <t>巨龙穹武</t>
-  </si>
-  <si>
-    <t>清微</t>
-  </si>
-  <si>
-    <t>徐长卿</t>
-  </si>
-  <si>
-    <t>剑圣</t>
-  </si>
-  <si>
-    <t>一贫</t>
-  </si>
-  <si>
-    <t>太武</t>
-  </si>
-  <si>
-    <t>红葵</t>
-  </si>
-  <si>
-    <t>蓝葵</t>
-  </si>
-  <si>
-    <t>结萝</t>
-  </si>
-  <si>
-    <t>慕容紫英</t>
-  </si>
-  <si>
-    <t>唐雪见</t>
-  </si>
-  <si>
-    <t>景天</t>
-  </si>
-  <si>
-    <t>花楹</t>
-  </si>
-  <si>
-    <t>王蓬絮</t>
-  </si>
-  <si>
-    <t>三外</t>
-  </si>
-  <si>
-    <t>温慧</t>
-  </si>
-  <si>
-    <t>南宫煌</t>
-  </si>
-  <si>
-    <t>星璇</t>
-  </si>
-  <si>
-    <t>酒剑仙</t>
-  </si>
-  <si>
-    <t>岚翼</t>
-  </si>
-  <si>
-    <t>夙瑶</t>
-  </si>
-  <si>
-    <t>韩菱纱</t>
-  </si>
-  <si>
-    <t>柳梦璃</t>
-  </si>
-  <si>
-    <t>云天河</t>
-  </si>
-  <si>
-    <t>云天青</t>
-  </si>
-  <si>
-    <t>玄霄</t>
-  </si>
-  <si>
-    <t>夙玉</t>
-  </si>
-  <si>
-    <t>姜云凡</t>
-  </si>
-  <si>
-    <t>唐雨柔</t>
-  </si>
-  <si>
-    <t>皇甫卓</t>
-  </si>
-  <si>
-    <t>龙幽</t>
-  </si>
-  <si>
-    <t>凌波</t>
-  </si>
-  <si>
-    <t>龙溟</t>
-  </si>
-  <si>
-    <t>凌音</t>
-  </si>
-  <si>
-    <t>暮菖兰</t>
-  </si>
-  <si>
-    <t>枯木</t>
-  </si>
-  <si>
-    <t>姜承</t>
-  </si>
-  <si>
-    <t>厉岩</t>
-  </si>
-  <si>
-    <t>谢沧行</t>
-  </si>
-  <si>
-    <t>夏侯瑾轩</t>
+    <t>云裳部件</t>
   </si>
   <si>
     <t>南蛮王</t>
@@ -703,9 +706,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -717,9 +720,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,7 +774,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,38 +802,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,14 +834,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -809,55 +849,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -870,7 +873,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,25 +981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,49 +999,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,37 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,43 +1047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,50 +1067,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,11 +1110,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,6 +1155,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1169,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,133 +1184,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2566,7 +2569,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2580,10 +2583,9 @@
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.375" customWidth="1"/>
     <col min="4" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:13">
+    <row r="1" s="1" customFormat="1" spans="2:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2617,13 +2619,10 @@
       <c r="L1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -2632,231 +2631,231 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -2868,174 +2867,174 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -3044,320 +3043,320 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="J16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="G20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -3366,156 +3365,156 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="J29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="K31" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="G32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>30</v>
@@ -3524,63 +3523,63 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
@@ -3589,220 +3588,220 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="L40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="L41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="K43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3839,7 +3838,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3856,7 +3855,7 @@
     <col min="13" max="13" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:13">
+    <row r="1" s="1" customFormat="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3891,12 +3890,15 @@
         <v>101</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>176</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -3905,118 +3907,118 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -4024,35 +4026,35 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -4060,62 +4062,62 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -4123,7 +4125,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -4132,28 +4134,28 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -4161,32 +4163,32 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -4194,64 +4196,64 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -4260,31 +4262,31 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -4292,128 +4294,128 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -4421,244 +4423,244 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -4666,58 +4668,58 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -4726,52 +4728,52 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -4779,332 +4781,335 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>162</v>
+      <c r="N32">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="K38" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="H39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="K39" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="L40" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -5112,37 +5117,37 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>30</v>
@@ -5151,61 +5156,64 @@
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="L43" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -5213,35 +5221,35 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -5249,59 +5257,59 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="K45" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -5309,35 +5317,35 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -5345,29 +5353,29 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -5375,103 +5383,103 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="I51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
@@ -5480,187 +5488,187 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="J53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="H54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="K54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="K57" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -5668,619 +5676,622 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="H60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="K63" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="K67" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="J69" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G70" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="J70" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="G72" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="J72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L72" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -6293,7 +6304,7 @@
       </c>
       <c r="M80">
         <f>SUM(M2:M79)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -707,8 +707,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -720,6 +720,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -737,7 +826,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,113 +856,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -873,7 +873,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,79 +1011,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,91 +1053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,13 +1067,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,6 +1093,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,56 +1159,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,16 +1184,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,115 +1202,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6294,7 +6294,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:14">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
@@ -6305,6 +6305,10 @@
       <c r="M80">
         <f>SUM(M2:M79)</f>
         <v>18</v>
+      </c>
+      <c r="N80">
+        <f>SUM(N2:N79)/5</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -720,6 +720,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -728,22 +789,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,78 +803,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -848,7 +827,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -856,11 +857,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -870,102 +870,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -981,13 +885,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,13 +975,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,31 +1023,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,17 +1067,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,43 +1120,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,11 +1141,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,133 +1184,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4868,6 +4868,9 @@
       <c r="L32" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
       <c r="N32">
         <v>5</v>
       </c>
@@ -6026,6 +6029,9 @@
       <c r="L70" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
       <c r="N70">
         <v>5</v>
       </c>
@@ -6304,7 +6310,7 @@
       </c>
       <c r="M80">
         <f>SUM(M2:M79)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N80">
         <f>SUM(N2:N79)/5</f>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -707,9 +707,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -720,7 +720,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -729,46 +728,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,18 +749,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,15 +767,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,10 +811,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -850,15 +825,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,7 +873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,13 +891,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +921,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,25 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,60 +975,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1017,19 +987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,13 +1011,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,6 +1067,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1074,6 +1089,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,17 +1147,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,45 +1164,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1172,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,133 +1184,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4749,7 +4749,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>200</v>
       </c>
@@ -4776,7 +4776,10 @@
         <v>201</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -5258,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>208</v>
       </c>
@@ -5290,6 +5293,9 @@
       <c r="L45" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
@@ -5766,7 +5772,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>212</v>
       </c>
@@ -5795,6 +5801,9 @@
       <c r="L62" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
@@ -6310,11 +6319,11 @@
       </c>
       <c r="M80">
         <f>SUM(M2:M79)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N80">
         <f>SUM(N2:N79)/5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -706,10 +706,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -727,9 +727,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,7 +742,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,6 +795,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -765,46 +810,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,14 +827,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,11 +841,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -849,16 +857,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,13 +873,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,31 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,25 +957,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,43 +993,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,37 +1041,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,32 +1064,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1123,6 +1097,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1150,15 +1159,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1172,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,133 +1184,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4630,7 +4630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>196</v>
       </c>
@@ -4663,7 +4663,10 @@
         <v>105</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5390,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>209</v>
       </c>
@@ -5422,6 +5425,9 @@
       <c r="L49" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
@@ -6319,11 +6325,11 @@
       </c>
       <c r="M80">
         <f>SUM(M2:M79)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N80">
         <f>SUM(N2:N79)/5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -706,15 +706,39 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -734,53 +758,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,16 +789,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,14 +834,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -841,11 +841,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,8 +856,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,13 +873,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,13 +909,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,97 +981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,13 +1005,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,7 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,17 +1067,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,27 +1118,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,15 +1137,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,133 +1184,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4057,7 +4057,7 @@
         <v>105</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>184</v>
       </c>
@@ -4158,7 +4158,10 @@
         <v>188</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5189,7 +5192,7 @@
         <v>185</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -6325,11 +6328,11 @@
       </c>
       <c r="M80">
         <f>SUM(M2:M79)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N80">
         <f>SUM(N2:N79)/5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -720,6 +720,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -737,28 +796,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -766,8 +803,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,61 +844,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -848,17 +857,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,13 +873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,19 +891,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,31 +909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +939,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +999,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,61 +1023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,7 +1035,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,19 +1070,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,45 +1087,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,7 +1110,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,133 +1184,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4021,7 +4021,7 @@
         <v>185</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4194,7 +4194,7 @@
         <v>188</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="M80">
         <f>SUM(M2:M79)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N80">
         <f>SUM(N2:N79)/5</f>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -707,9 +707,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -720,15 +720,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,24 +743,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,11 +757,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,11 +780,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,8 +795,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -822,13 +813,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,6 +831,22 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,7 +873,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,13 +903,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,25 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +939,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,49 +969,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,13 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,7 +1017,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,19 +1053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,8 +1070,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,15 +1106,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1133,8 +1124,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,6 +1155,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1172,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,133 +1184,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3896,7 +3896,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>178</v>
       </c>
@@ -3929,6 +3929,9 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>182</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6328,7 +6331,7 @@
       </c>
       <c r="M80">
         <f>SUM(M2:M79)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N80">
         <f>SUM(N2:N79)/5</f>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -706,10 +706,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -720,16 +720,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,7 +743,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,7 +758,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,13 +789,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,6 +826,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -834,31 +857,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,7 +873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,31 +891,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,6 +922,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,13 +981,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,79 +1047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,11 +1067,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,17 +1097,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,8 +1133,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,15 +1164,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1172,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,37 +1184,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,94 +1220,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4257,7 +4257,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>191</v>
       </c>
@@ -4295,7 +4295,10 @@
         <v>138</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6331,11 +6334,11 @@
       </c>
       <c r="M80">
         <f>SUM(M2:M79)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N80">
         <f>SUM(N2:N79)/5</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -707,9 +707,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -721,7 +721,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,7 +753,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,29 +767,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,9 +805,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -825,25 +834,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,8 +849,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,73 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +891,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,49 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,13 +1017,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,12 +1057,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1064,21 +1064,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1093,24 +1078,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,6 +1117,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1164,6 +1140,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1172,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,34 +1184,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,94 +1220,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4367,7 +4367,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>193</v>
       </c>
@@ -4399,6 +4399,9 @@
       <c r="L16" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
@@ -5698,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>165</v>
       </c>
@@ -5721,6 +5724,9 @@
       <c r="L59" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
@@ -6334,7 +6340,7 @@
       </c>
       <c r="M80">
         <f>SUM(M2:M79)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N80">
         <f>SUM(N2:N79)/5</f>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
   <si>
     <t>出处</t>
   </si>
@@ -35,10 +35,25 @@
     <t>二</t>
   </si>
   <si>
+    <t>飞仙玄霄</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>琼华梦璃</t>
+  </si>
+  <si>
+    <t>琼华菱纱</t>
+  </si>
+  <si>
+    <t>琼华天河</t>
+  </si>
+  <si>
+    <t>紫英仙人</t>
+  </si>
+  <si>
     <t>璇玑</t>
-  </si>
-  <si>
-    <t>四</t>
   </si>
   <si>
     <t>怀朔</t>
@@ -720,8 +735,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,17 +780,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,51 +789,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,32 +825,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,6 +838,37 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,13 +888,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +942,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,133 +1056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,19 +1068,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,21 +1079,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1106,26 +1106,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1137,6 +1117,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,6 +1162,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1172,10 +1187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,133 +1199,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1646,13 +1661,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="3" width="5.375" customWidth="1"/>
   </cols>
@@ -1684,7 +1699,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1698,26 +1713,61 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
-        <f>SUM(C2:C5)</f>
-        <v>4</v>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(C2:C10)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1750,10 +1800,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1761,34 +1811,34 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1796,25 +1846,25 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -1857,10 +1907,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1868,38 +1918,38 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1907,24 +1957,24 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1932,14 +1982,14 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -1984,10 +2034,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>14</v>
@@ -1995,98 +2045,98 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -2097,10 +2147,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
         <v>7</v>
@@ -2108,52 +2158,52 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2161,21 +2211,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <f>SUM(C2:C26)</f>
@@ -2220,10 +2270,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
@@ -2231,87 +2281,87 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -2319,24 +2369,24 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -2344,17 +2394,17 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -2362,21 +2412,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
         <f>SUM(C2:C21)</f>
@@ -2423,10 +2473,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -2434,80 +2484,80 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -2515,31 +2565,31 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2547,7 +2597,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <f>SUM(C2:C17)</f>
@@ -2593,269 +2643,269 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -2867,496 +2917,496 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -3365,448 +3415,448 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="K39" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <f>SUM(C2:C43)</f>
@@ -3863,165 +3913,171 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -4029,35 +4085,35 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -4065,62 +4121,62 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -4128,7 +4184,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -4137,28 +4193,28 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -4169,32 +4225,32 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M10">
         <v>2</v>
@@ -4202,97 +4258,97 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -4303,101 +4359,101 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -4405,29 +4461,29 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -4435,244 +4491,244 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M25">
         <v>2</v>
@@ -4683,58 +4739,58 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -4743,52 +4799,55 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M29">
         <v>2</v>
@@ -4799,92 +4858,92 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -4895,242 +4954,242 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="G39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -5138,67 +5197,67 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M42">
         <v>2</v>
@@ -5206,35 +5265,35 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -5242,35 +5301,35 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -5278,35 +5337,35 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -5314,26 +5373,26 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -5341,35 +5400,35 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -5377,29 +5436,29 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -5407,35 +5466,35 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -5443,259 +5502,259 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C52" s="1">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -5703,26 +5762,26 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -5730,97 +5789,97 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="K62" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -5828,236 +5887,236 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="K64" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="K65" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -6068,271 +6127,271 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C80">
         <f>SUM(C2:C79)</f>
@@ -6340,11 +6399,11 @@
       </c>
       <c r="M80">
         <f>SUM(M2:M79)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N80">
         <f>SUM(N2:N79)/5</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
   <si>
     <t>出处</t>
   </si>
@@ -338,10 +338,19 @@
     <t>绝技1</t>
   </si>
   <si>
-    <t>绝技2</t>
-  </si>
-  <si>
-    <t>绝技3</t>
+    <t>绝技21</t>
+  </si>
+  <si>
+    <t>绝技22</t>
+  </si>
+  <si>
+    <t>绝技31</t>
+  </si>
+  <si>
+    <t>绝技32</t>
+  </si>
+  <si>
+    <t>绝技33</t>
   </si>
   <si>
     <t>巫后</t>
@@ -721,10 +730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -735,24 +744,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,6 +803,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -780,8 +857,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,82 +887,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -888,13 +897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,13 +915,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,127 +975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,13 +999,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,41 +1091,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,6 +1141,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1171,11 +1174,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1199,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2619,7 +2628,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2632,10 +2641,10 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.375" customWidth="1"/>
-    <col min="4" max="12" width="9" style="1"/>
+    <col min="4" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:12">
+    <row r="1" s="1" customFormat="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2669,10 +2678,19 @@
       <c r="L1" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -2681,231 +2699,303 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>120</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>122</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>114</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>122</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>114</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -2917,174 +3007,228 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>134</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>129</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>110</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>115</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
@@ -3093,320 +3237,428 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>140</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>142</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>147</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>145</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>153</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>111</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="N23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>159</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>147</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="K26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="N26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>120</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -3415,156 +3667,210 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>137</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>150</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="K31" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="N31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="K33" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="N33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
@@ -3573,63 +3879,81 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>174</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="K35" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="N35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
@@ -3638,220 +3962,292 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>163</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>139</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>178</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>180</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>179</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>175</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>180</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3888,7 +4284,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3901,11 +4297,11 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.375" customWidth="1"/>
-    <col min="4" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="5.375" customWidth="1"/>
+    <col min="4" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:14">
+    <row r="1" s="1" customFormat="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3940,15 +4336,24 @@
         <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -3957,234 +4362,297 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>195</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="M5">
+        <v>193</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M6">
+      <c r="M6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8">
+        <v>182</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -4193,129 +4661,165 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="L9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="M9">
+      <c r="O9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M10">
+        <v>196</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>129</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>129</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -4324,473 +4828,608 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13">
+        <v>146</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13">
         <v>2</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="K16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M16">
+      <c r="N16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17">
+        <v>111</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>207</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>111</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="N21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>150</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>128</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>155</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M25">
+        <v>113</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25">
         <v>2</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>134</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="J27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -4799,435 +5438,561 @@
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M28">
+        <v>187</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M29">
+        <v>209</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29">
         <v>2</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>177</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>149</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="M32">
+        <v>169</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32">
         <v>1</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>168</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>215</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>215</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="L36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="O36" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>131</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>131</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>164</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="K40" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M40">
+      <c r="N40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>168</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>35</v>
@@ -5236,336 +6001,426 @@
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="M42">
+      <c r="M42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M43">
+        <v>148</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M44">
+        <v>217</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M45">
+        <v>126</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M46">
+        <v>197</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M47">
+        <v>126</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M48">
+        <v>183</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M49">
+        <v>149</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>171</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>115</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>13</v>
@@ -5574,822 +6429,1074 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>131</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="K53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="N53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>143</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>152</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>162</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>174</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M58">
+        <v>173</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M59">
+        <v>152</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="K60" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>222</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>222</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M62">
+        <v>223</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="F63" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J63" s="1" t="s">
+      <c r="L63" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="O63" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>227</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>222</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>228</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="F67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H67" s="1" t="s">
+      <c r="L67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>183</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>222</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M70">
+        <v>233</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="P70">
         <v>1</v>
       </c>
-      <c r="N70">
+      <c r="Q70">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>233</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>231</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>231</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H74" s="1" t="s">
+      <c r="J74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="L74" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>194</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>200</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>224</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="H77" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J77" s="1" t="s">
+      <c r="M77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="G78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="K78" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>227</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
@@ -6397,12 +7504,12 @@
         <f>SUM(C2:C79)</f>
         <v>78</v>
       </c>
-      <c r="M80">
-        <f>SUM(M2:M79)</f>
+      <c r="P80">
+        <f>SUM(P2:P79)</f>
         <v>36</v>
       </c>
-      <c r="N80">
-        <f>SUM(N2:N79)/5</f>
+      <c r="Q80">
+        <f>SUM(Q2:Q79)/5</f>
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -732,8 +732,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -745,7 +745,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,58 +753,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,7 +783,81 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -857,29 +880,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -897,7 +897,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,19 +945,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,7 +969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,19 +987,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,7 +1017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,43 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,37 +1059,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,15 +1088,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1111,15 +1102,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,8 +1124,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,26 +1171,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,37 +1208,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,94 +1247,94 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4380,10 +4380,10 @@
         <v>187</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>187</v>
@@ -4422,10 +4422,10 @@
         <v>192</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>192</v>
@@ -4467,10 +4467,10 @@
         <v>114</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>114</v>
@@ -5295,10 +5295,10 @@
         <v>193</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>193</v>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -50,601 +50,601 @@
     <t>琼华天河</t>
   </si>
   <si>
+    <t>璇玑</t>
+  </si>
+  <si>
+    <t>怀朔</t>
+  </si>
+  <si>
+    <t>欧阳英</t>
+  </si>
+  <si>
+    <t>五前</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>市井混混</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>锤护院</t>
+  </si>
+  <si>
+    <t>罗汉腿</t>
+  </si>
+  <si>
+    <t>暗器手</t>
+  </si>
+  <si>
+    <t>拜月教徒</t>
+  </si>
+  <si>
+    <t>枪卒</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>霹雳武士</t>
+  </si>
+  <si>
+    <t>瘟神</t>
+  </si>
+  <si>
+    <t>赵无延</t>
+  </si>
+  <si>
+    <t>金蟾</t>
+  </si>
+  <si>
+    <t>蛇妖男</t>
+  </si>
+  <si>
+    <t>五毒巨蝎</t>
+  </si>
+  <si>
+    <t>书中仙</t>
+  </si>
+  <si>
+    <t>拜月使者</t>
+  </si>
+  <si>
+    <t>精精</t>
+  </si>
+  <si>
+    <t>兵器谱</t>
+  </si>
+  <si>
+    <t>赵文昌</t>
+  </si>
+  <si>
+    <t>小小蛮</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>双头冰蛇</t>
+  </si>
+  <si>
+    <t>小虎子</t>
+  </si>
+  <si>
+    <t>李大娘</t>
+  </si>
+  <si>
+    <t>姬三娘</t>
+  </si>
+  <si>
+    <t>唐钰</t>
+  </si>
+  <si>
+    <t>暗香</t>
+  </si>
+  <si>
+    <t>树妖</t>
+  </si>
+  <si>
+    <t>智杖和尚</t>
+  </si>
+  <si>
+    <t>九头蛇</t>
+  </si>
+  <si>
+    <t>狐妖女</t>
+  </si>
+  <si>
+    <t>毒娘子</t>
+  </si>
+  <si>
+    <t>香兰</t>
+  </si>
+  <si>
+    <t>刘晋元</t>
+  </si>
+  <si>
+    <t>韩医仙</t>
+  </si>
+  <si>
+    <t>韩梦慈</t>
+  </si>
+  <si>
+    <t>喻南松</t>
+  </si>
+  <si>
+    <t>巨灵神</t>
+  </si>
+  <si>
+    <t>古藤精</t>
+  </si>
+  <si>
+    <t>古藤老人</t>
+  </si>
+  <si>
+    <t>魔披风</t>
+  </si>
+  <si>
+    <t>唐泰</t>
+  </si>
+  <si>
+    <t>唐益</t>
+  </si>
+  <si>
+    <t>罗如烈</t>
+  </si>
+  <si>
+    <t>耀甲</t>
+  </si>
+  <si>
+    <t>海富贵</t>
+  </si>
+  <si>
+    <t>雪纹兽</t>
+  </si>
+  <si>
+    <t>智修大师</t>
+  </si>
+  <si>
+    <t>小石头</t>
+  </si>
+  <si>
+    <t>巫王</t>
+  </si>
+  <si>
+    <t>火麒麟</t>
+  </si>
+  <si>
+    <t>骷髅将军</t>
+  </si>
+  <si>
+    <t>彩依</t>
+  </si>
+  <si>
+    <t>盖罗娇</t>
+  </si>
+  <si>
+    <t>姜婉儿</t>
+  </si>
+  <si>
+    <t>姥姥</t>
+  </si>
+  <si>
+    <t>木道人</t>
+  </si>
+  <si>
+    <t>金翅凤凰</t>
+  </si>
+  <si>
+    <t>金蟾鬼母</t>
+  </si>
+  <si>
+    <t>苍萤</t>
+  </si>
+  <si>
+    <t>万玉枝</t>
+  </si>
+  <si>
+    <t>炎邪女</t>
+  </si>
+  <si>
+    <t>欧阳慧</t>
+  </si>
+  <si>
+    <t>夏孤临</t>
+  </si>
+  <si>
+    <t>腥鬼</t>
+  </si>
+  <si>
+    <t>夏侯韬</t>
+  </si>
+  <si>
+    <t>欧阳倩</t>
+  </si>
+  <si>
+    <t>圣姑</t>
+  </si>
+  <si>
+    <t>林天南</t>
+  </si>
+  <si>
+    <t>土神龙</t>
+  </si>
+  <si>
+    <t>冰神龙</t>
+  </si>
+  <si>
+    <t>雷神龙</t>
+  </si>
+  <si>
+    <t>火神龙</t>
+  </si>
+  <si>
+    <t>风神龙</t>
+  </si>
+  <si>
+    <t>姜清</t>
+  </si>
+  <si>
+    <t>石长老</t>
+  </si>
+  <si>
+    <t>赤鬼王</t>
+  </si>
+  <si>
+    <t>地魔兽</t>
+  </si>
+  <si>
+    <t>敖耶神牛</t>
+  </si>
+  <si>
+    <t>神将军</t>
+  </si>
+  <si>
+    <t>云霆</t>
+  </si>
+  <si>
+    <t>溪风</t>
+  </si>
+  <si>
+    <t>炎帝侍</t>
+  </si>
+  <si>
+    <t>仙缘1</t>
+  </si>
+  <si>
+    <t>仙缘2</t>
+  </si>
+  <si>
+    <t>仙缘31</t>
+  </si>
+  <si>
+    <t>仙缘32</t>
+  </si>
+  <si>
+    <t>仙缘33</t>
+  </si>
+  <si>
+    <t>仙缘34</t>
+  </si>
+  <si>
+    <t>绝技1</t>
+  </si>
+  <si>
+    <t>绝技21</t>
+  </si>
+  <si>
+    <t>绝技22</t>
+  </si>
+  <si>
+    <t>绝技31</t>
+  </si>
+  <si>
+    <t>绝技32</t>
+  </si>
+  <si>
+    <t>绝技33</t>
+  </si>
+  <si>
+    <t>巫后</t>
+  </si>
+  <si>
+    <t>夕瑶</t>
+  </si>
+  <si>
+    <t>水魔兽</t>
+  </si>
+  <si>
+    <t>紫萱</t>
+  </si>
+  <si>
+    <t>赵灵儿</t>
+  </si>
+  <si>
+    <t>李忆如</t>
+  </si>
+  <si>
+    <t>小蛮</t>
+  </si>
+  <si>
+    <t>镇狱明王</t>
+  </si>
+  <si>
+    <t>邪剑仙</t>
+  </si>
+  <si>
+    <t>拜月教主</t>
+  </si>
+  <si>
+    <t>雷元戈</t>
+  </si>
+  <si>
+    <t>李逍遥</t>
+  </si>
+  <si>
+    <t>林月如</t>
+  </si>
+  <si>
+    <t>阿奴</t>
+  </si>
+  <si>
+    <t>瑕</t>
+  </si>
+  <si>
+    <t>苏媚</t>
+  </si>
+  <si>
+    <t>草谷</t>
+  </si>
+  <si>
+    <t>天鬼皇</t>
+  </si>
+  <si>
+    <t>孔磷</t>
+  </si>
+  <si>
+    <t>王小虎</t>
+  </si>
+  <si>
+    <t>天魑皇</t>
+  </si>
+  <si>
+    <t>帝江神兽</t>
+  </si>
+  <si>
+    <t>青阳</t>
+  </si>
+  <si>
+    <t>千叶禅师</t>
+  </si>
+  <si>
+    <t>天妖皇</t>
+  </si>
+  <si>
+    <t>燎日</t>
+  </si>
+  <si>
+    <t>沈欺霜</t>
+  </si>
+  <si>
+    <t>冰晶女</t>
+  </si>
+  <si>
+    <t>妖灵雪女</t>
+  </si>
+  <si>
+    <t>火灵炎舞</t>
+  </si>
+  <si>
+    <t>熔岩兽王</t>
+  </si>
+  <si>
+    <t>黑豹</t>
+  </si>
+  <si>
+    <t>衔烛之龙</t>
+  </si>
+  <si>
+    <t>句芒</t>
+  </si>
+  <si>
+    <t>巨龙穹武</t>
+  </si>
+  <si>
+    <t>清微</t>
+  </si>
+  <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>一贫</t>
+  </si>
+  <si>
+    <t>太武</t>
+  </si>
+  <si>
+    <t>红葵</t>
+  </si>
+  <si>
+    <t>蓝葵</t>
+  </si>
+  <si>
+    <t>结萝</t>
+  </si>
+  <si>
+    <t>慕容紫英</t>
+  </si>
+  <si>
+    <t>唐雪见</t>
+  </si>
+  <si>
+    <t>景天</t>
+  </si>
+  <si>
+    <t>花楹</t>
+  </si>
+  <si>
+    <t>王蓬絮</t>
+  </si>
+  <si>
+    <t>三外</t>
+  </si>
+  <si>
+    <t>温慧</t>
+  </si>
+  <si>
+    <t>南宫煌</t>
+  </si>
+  <si>
+    <t>星璇</t>
+  </si>
+  <si>
+    <t>酒剑仙</t>
+  </si>
+  <si>
+    <t>岚翼</t>
+  </si>
+  <si>
+    <t>夙瑶</t>
+  </si>
+  <si>
+    <t>韩菱纱</t>
+  </si>
+  <si>
+    <t>柳梦璃</t>
+  </si>
+  <si>
+    <t>云天河</t>
+  </si>
+  <si>
+    <t>云天青</t>
+  </si>
+  <si>
+    <t>玄霄</t>
+  </si>
+  <si>
+    <t>夙玉</t>
+  </si>
+  <si>
+    <t>姜云凡</t>
+  </si>
+  <si>
+    <t>唐雨柔</t>
+  </si>
+  <si>
+    <t>皇甫卓</t>
+  </si>
+  <si>
+    <t>龙幽</t>
+  </si>
+  <si>
+    <t>凌波</t>
+  </si>
+  <si>
+    <t>龙溟</t>
+  </si>
+  <si>
+    <t>凌音</t>
+  </si>
+  <si>
+    <t>暮菖兰</t>
+  </si>
+  <si>
+    <t>枯木</t>
+  </si>
+  <si>
+    <t>姜承</t>
+  </si>
+  <si>
+    <t>厉岩</t>
+  </si>
+  <si>
+    <t>谢沧行</t>
+  </si>
+  <si>
+    <t>夏侯瑾轩</t>
+  </si>
+  <si>
+    <t>云裳</t>
+  </si>
+  <si>
+    <t>云裳部件</t>
+  </si>
+  <si>
+    <t>南蛮王</t>
+  </si>
+  <si>
+    <t>海棠夫人</t>
+  </si>
+  <si>
+    <t>厉江流</t>
+  </si>
+  <si>
+    <t>灵月宫主</t>
+  </si>
+  <si>
+    <t>李三思</t>
+  </si>
+  <si>
+    <t>葛巧菱</t>
+  </si>
+  <si>
+    <t>柔情月如</t>
+  </si>
+  <si>
+    <t>掌门逍遥</t>
+  </si>
+  <si>
+    <t>闲卿</t>
+  </si>
+  <si>
+    <t>太清真人</t>
+  </si>
+  <si>
+    <t>梦蛇灵儿</t>
+  </si>
+  <si>
+    <t>铁笔</t>
+  </si>
+  <si>
+    <t>盛尊武</t>
+  </si>
+  <si>
+    <t>梦蛇紫萱</t>
+  </si>
+  <si>
+    <t>越祈</t>
+  </si>
+  <si>
+    <t>公主龙葵</t>
+  </si>
+  <si>
+    <t>太子龙阳</t>
+  </si>
+  <si>
+    <t>魔尊重楼</t>
+  </si>
+  <si>
+    <t>掌门长卿</t>
+  </si>
+  <si>
+    <t>藏锋</t>
+  </si>
+  <si>
+    <t>飞蓬</t>
+  </si>
+  <si>
+    <t>重楼</t>
+  </si>
+  <si>
     <t>紫英仙人</t>
-  </si>
-  <si>
-    <t>璇玑</t>
-  </si>
-  <si>
-    <t>怀朔</t>
-  </si>
-  <si>
-    <t>欧阳英</t>
-  </si>
-  <si>
-    <t>五前</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>市井混混</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>锤护院</t>
-  </si>
-  <si>
-    <t>罗汉腿</t>
-  </si>
-  <si>
-    <t>暗器手</t>
-  </si>
-  <si>
-    <t>拜月教徒</t>
-  </si>
-  <si>
-    <t>枪卒</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>霹雳武士</t>
-  </si>
-  <si>
-    <t>瘟神</t>
-  </si>
-  <si>
-    <t>赵无延</t>
-  </si>
-  <si>
-    <t>金蟾</t>
-  </si>
-  <si>
-    <t>蛇妖男</t>
-  </si>
-  <si>
-    <t>五毒巨蝎</t>
-  </si>
-  <si>
-    <t>书中仙</t>
-  </si>
-  <si>
-    <t>拜月使者</t>
-  </si>
-  <si>
-    <t>精精</t>
-  </si>
-  <si>
-    <t>兵器谱</t>
-  </si>
-  <si>
-    <t>赵文昌</t>
-  </si>
-  <si>
-    <t>小小蛮</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>双头冰蛇</t>
-  </si>
-  <si>
-    <t>小虎子</t>
-  </si>
-  <si>
-    <t>李大娘</t>
-  </si>
-  <si>
-    <t>姬三娘</t>
-  </si>
-  <si>
-    <t>唐钰</t>
-  </si>
-  <si>
-    <t>暗香</t>
-  </si>
-  <si>
-    <t>树妖</t>
-  </si>
-  <si>
-    <t>智杖和尚</t>
-  </si>
-  <si>
-    <t>九头蛇</t>
-  </si>
-  <si>
-    <t>狐妖女</t>
-  </si>
-  <si>
-    <t>毒娘子</t>
-  </si>
-  <si>
-    <t>香兰</t>
-  </si>
-  <si>
-    <t>刘晋元</t>
-  </si>
-  <si>
-    <t>韩医仙</t>
-  </si>
-  <si>
-    <t>韩梦慈</t>
-  </si>
-  <si>
-    <t>喻南松</t>
-  </si>
-  <si>
-    <t>巨灵神</t>
-  </si>
-  <si>
-    <t>古藤精</t>
-  </si>
-  <si>
-    <t>古藤老人</t>
-  </si>
-  <si>
-    <t>魔披风</t>
-  </si>
-  <si>
-    <t>唐泰</t>
-  </si>
-  <si>
-    <t>唐益</t>
-  </si>
-  <si>
-    <t>罗如烈</t>
-  </si>
-  <si>
-    <t>耀甲</t>
-  </si>
-  <si>
-    <t>海富贵</t>
-  </si>
-  <si>
-    <t>雪纹兽</t>
-  </si>
-  <si>
-    <t>智修大师</t>
-  </si>
-  <si>
-    <t>小石头</t>
-  </si>
-  <si>
-    <t>巫王</t>
-  </si>
-  <si>
-    <t>火麒麟</t>
-  </si>
-  <si>
-    <t>骷髅将军</t>
-  </si>
-  <si>
-    <t>彩依</t>
-  </si>
-  <si>
-    <t>盖罗娇</t>
-  </si>
-  <si>
-    <t>姜婉儿</t>
-  </si>
-  <si>
-    <t>姥姥</t>
-  </si>
-  <si>
-    <t>木道人</t>
-  </si>
-  <si>
-    <t>金翅凤凰</t>
-  </si>
-  <si>
-    <t>金蟾鬼母</t>
-  </si>
-  <si>
-    <t>苍萤</t>
-  </si>
-  <si>
-    <t>万玉枝</t>
-  </si>
-  <si>
-    <t>炎邪女</t>
-  </si>
-  <si>
-    <t>欧阳慧</t>
-  </si>
-  <si>
-    <t>夏孤临</t>
-  </si>
-  <si>
-    <t>腥鬼</t>
-  </si>
-  <si>
-    <t>夏侯韬</t>
-  </si>
-  <si>
-    <t>欧阳倩</t>
-  </si>
-  <si>
-    <t>圣姑</t>
-  </si>
-  <si>
-    <t>林天南</t>
-  </si>
-  <si>
-    <t>土神龙</t>
-  </si>
-  <si>
-    <t>冰神龙</t>
-  </si>
-  <si>
-    <t>雷神龙</t>
-  </si>
-  <si>
-    <t>火神龙</t>
-  </si>
-  <si>
-    <t>风神龙</t>
-  </si>
-  <si>
-    <t>姜清</t>
-  </si>
-  <si>
-    <t>石长老</t>
-  </si>
-  <si>
-    <t>赤鬼王</t>
-  </si>
-  <si>
-    <t>地魔兽</t>
-  </si>
-  <si>
-    <t>敖耶神牛</t>
-  </si>
-  <si>
-    <t>神将军</t>
-  </si>
-  <si>
-    <t>云霆</t>
-  </si>
-  <si>
-    <t>溪风</t>
-  </si>
-  <si>
-    <t>炎帝侍</t>
-  </si>
-  <si>
-    <t>仙缘1</t>
-  </si>
-  <si>
-    <t>仙缘2</t>
-  </si>
-  <si>
-    <t>仙缘31</t>
-  </si>
-  <si>
-    <t>仙缘32</t>
-  </si>
-  <si>
-    <t>仙缘33</t>
-  </si>
-  <si>
-    <t>仙缘34</t>
-  </si>
-  <si>
-    <t>绝技1</t>
-  </si>
-  <si>
-    <t>绝技21</t>
-  </si>
-  <si>
-    <t>绝技22</t>
-  </si>
-  <si>
-    <t>绝技31</t>
-  </si>
-  <si>
-    <t>绝技32</t>
-  </si>
-  <si>
-    <t>绝技33</t>
-  </si>
-  <si>
-    <t>巫后</t>
-  </si>
-  <si>
-    <t>夕瑶</t>
-  </si>
-  <si>
-    <t>水魔兽</t>
-  </si>
-  <si>
-    <t>紫萱</t>
-  </si>
-  <si>
-    <t>赵灵儿</t>
-  </si>
-  <si>
-    <t>李忆如</t>
-  </si>
-  <si>
-    <t>小蛮</t>
-  </si>
-  <si>
-    <t>镇狱明王</t>
-  </si>
-  <si>
-    <t>邪剑仙</t>
-  </si>
-  <si>
-    <t>拜月教主</t>
-  </si>
-  <si>
-    <t>雷元戈</t>
-  </si>
-  <si>
-    <t>李逍遥</t>
-  </si>
-  <si>
-    <t>林月如</t>
-  </si>
-  <si>
-    <t>阿奴</t>
-  </si>
-  <si>
-    <t>瑕</t>
-  </si>
-  <si>
-    <t>苏媚</t>
-  </si>
-  <si>
-    <t>草谷</t>
-  </si>
-  <si>
-    <t>天鬼皇</t>
-  </si>
-  <si>
-    <t>孔磷</t>
-  </si>
-  <si>
-    <t>王小虎</t>
-  </si>
-  <si>
-    <t>天魑皇</t>
-  </si>
-  <si>
-    <t>帝江神兽</t>
-  </si>
-  <si>
-    <t>青阳</t>
-  </si>
-  <si>
-    <t>千叶禅师</t>
-  </si>
-  <si>
-    <t>天妖皇</t>
-  </si>
-  <si>
-    <t>燎日</t>
-  </si>
-  <si>
-    <t>沈欺霜</t>
-  </si>
-  <si>
-    <t>冰晶女</t>
-  </si>
-  <si>
-    <t>妖灵雪女</t>
-  </si>
-  <si>
-    <t>火灵炎舞</t>
-  </si>
-  <si>
-    <t>熔岩兽王</t>
-  </si>
-  <si>
-    <t>黑豹</t>
-  </si>
-  <si>
-    <t>衔烛之龙</t>
-  </si>
-  <si>
-    <t>句芒</t>
-  </si>
-  <si>
-    <t>巨龙穹武</t>
-  </si>
-  <si>
-    <t>清微</t>
-  </si>
-  <si>
-    <t>徐长卿</t>
-  </si>
-  <si>
-    <t>剑圣</t>
-  </si>
-  <si>
-    <t>一贫</t>
-  </si>
-  <si>
-    <t>太武</t>
-  </si>
-  <si>
-    <t>红葵</t>
-  </si>
-  <si>
-    <t>蓝葵</t>
-  </si>
-  <si>
-    <t>结萝</t>
-  </si>
-  <si>
-    <t>慕容紫英</t>
-  </si>
-  <si>
-    <t>唐雪见</t>
-  </si>
-  <si>
-    <t>景天</t>
-  </si>
-  <si>
-    <t>花楹</t>
-  </si>
-  <si>
-    <t>王蓬絮</t>
-  </si>
-  <si>
-    <t>三外</t>
-  </si>
-  <si>
-    <t>温慧</t>
-  </si>
-  <si>
-    <t>南宫煌</t>
-  </si>
-  <si>
-    <t>星璇</t>
-  </si>
-  <si>
-    <t>酒剑仙</t>
-  </si>
-  <si>
-    <t>岚翼</t>
-  </si>
-  <si>
-    <t>夙瑶</t>
-  </si>
-  <si>
-    <t>韩菱纱</t>
-  </si>
-  <si>
-    <t>柳梦璃</t>
-  </si>
-  <si>
-    <t>云天河</t>
-  </si>
-  <si>
-    <t>云天青</t>
-  </si>
-  <si>
-    <t>玄霄</t>
-  </si>
-  <si>
-    <t>夙玉</t>
-  </si>
-  <si>
-    <t>姜云凡</t>
-  </si>
-  <si>
-    <t>唐雨柔</t>
-  </si>
-  <si>
-    <t>皇甫卓</t>
-  </si>
-  <si>
-    <t>龙幽</t>
-  </si>
-  <si>
-    <t>凌波</t>
-  </si>
-  <si>
-    <t>龙溟</t>
-  </si>
-  <si>
-    <t>凌音</t>
-  </si>
-  <si>
-    <t>暮菖兰</t>
-  </si>
-  <si>
-    <t>枯木</t>
-  </si>
-  <si>
-    <t>姜承</t>
-  </si>
-  <si>
-    <t>厉岩</t>
-  </si>
-  <si>
-    <t>谢沧行</t>
-  </si>
-  <si>
-    <t>夏侯瑾轩</t>
-  </si>
-  <si>
-    <t>云裳</t>
-  </si>
-  <si>
-    <t>云裳部件</t>
-  </si>
-  <si>
-    <t>南蛮王</t>
-  </si>
-  <si>
-    <t>海棠夫人</t>
-  </si>
-  <si>
-    <t>厉江流</t>
-  </si>
-  <si>
-    <t>灵月宫主</t>
-  </si>
-  <si>
-    <t>李三思</t>
-  </si>
-  <si>
-    <t>葛巧菱</t>
-  </si>
-  <si>
-    <t>柔情月如</t>
-  </si>
-  <si>
-    <t>掌门逍遥</t>
-  </si>
-  <si>
-    <t>闲卿</t>
-  </si>
-  <si>
-    <t>太清真人</t>
-  </si>
-  <si>
-    <t>梦蛇灵儿</t>
-  </si>
-  <si>
-    <t>铁笔</t>
-  </si>
-  <si>
-    <t>盛尊武</t>
-  </si>
-  <si>
-    <t>梦蛇紫萱</t>
-  </si>
-  <si>
-    <t>越祈</t>
-  </si>
-  <si>
-    <t>公主龙葵</t>
-  </si>
-  <si>
-    <t>太子龙阳</t>
-  </si>
-  <si>
-    <t>魔尊重楼</t>
-  </si>
-  <si>
-    <t>掌门长卿</t>
-  </si>
-  <si>
-    <t>藏锋</t>
-  </si>
-  <si>
-    <t>飞蓬</t>
-  </si>
-  <si>
-    <t>重楼</t>
   </si>
   <si>
     <t>夙莘</t>
@@ -731,9 +731,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -744,8 +744,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,16 +774,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,6 +834,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -805,44 +850,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,32 +865,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,43 +897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,7 +915,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,13 +963,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +987,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,91 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,17 +1091,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,15 +1118,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1140,16 +1125,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,8 +1157,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1670,7 +1670,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1708,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1750,33 +1750,26 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <f>SUM(C2:C10)</f>
-        <v>9</v>
+      <c r="C10" s="2">
+        <f>SUM(C2:C9)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1809,10 +1802,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1820,34 +1813,34 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1855,25 +1848,25 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -1916,10 +1909,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1927,38 +1920,38 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1966,24 +1959,24 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1991,14 +1984,14 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -2043,10 +2036,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>14</v>
@@ -2054,98 +2047,98 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -2156,10 +2149,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
         <v>7</v>
@@ -2167,52 +2160,52 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2220,21 +2213,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
         <f>SUM(C2:C26)</f>
@@ -2279,10 +2272,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
@@ -2290,87 +2283,87 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -2378,24 +2371,24 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -2403,17 +2396,17 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -2421,21 +2414,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2">
         <f>SUM(C2:C21)</f>
@@ -2482,10 +2475,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -2493,80 +2486,80 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -2574,31 +2567,31 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2606,7 +2599,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
         <f>SUM(C2:C17)</f>
@@ -2652,350 +2645,350 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="M8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -3007,658 +3000,658 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="M10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="J16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="M16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="N17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="M18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="G20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="L20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -3667,592 +3660,592 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="F29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="J29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="O29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="O30" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="K31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="N31" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="M32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="M38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="L40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="O40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="L41" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="O41" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="H42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="N42" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="K43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <f>SUM(C2:C43)</f>
@@ -4284,7 +4277,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4309,90 +4302,90 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -4400,41 +4393,41 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -4445,80 +4438,80 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -4526,44 +4519,44 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P6">
         <v>3</v>
@@ -4571,80 +4564,80 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -4652,7 +4645,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -4661,37 +4654,37 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -4702,41 +4695,41 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -4744,124 +4737,124 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="M12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -4872,128 +4865,128 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -5001,38 +4994,38 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -5040,316 +5033,316 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -5360,394 +5353,397 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="Q29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>168</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>215</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>215</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>215</v>
@@ -5755,80 +5751,80 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -5837,291 +5833,285 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>168</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="1">
-        <v>10</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="P42">
-        <v>2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10</v>
+      </c>
       <c r="D43" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="I44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="L44" s="1" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -6129,44 +6119,44 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>217</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -6174,35 +6164,44 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>197</v>
+      <c r="G46" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="K46" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="N46" s="1" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -6210,44 +6209,35 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>147</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>147</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -6255,38 +6245,44 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>173</v>
+        <v>217</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -6294,370 +6290,373 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>116</v>
+        <v>216</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="L51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="N51" s="1" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="1">
-        <v>8</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="1">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="E53" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="J56" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>178</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G58" s="1" t="s">
         <v>173</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>178</v>
@@ -6666,7 +6665,7 @@
         <v>173</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>178</v>
@@ -6674,100 +6673,97 @@
       <c r="O58" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>152</v>
+        <v>196</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="P59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C60" s="1">
-        <v>20</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>222</v>
+        <v>151</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="1">
+        <v>20</v>
+      </c>
       <c r="D61" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>222</v>
@@ -6776,136 +6772,139 @@
         <v>220</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>222</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>222</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="J62" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="J63" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="M63" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>227</v>
+      <c r="P63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="J64" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>227</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>227</v>
@@ -6913,95 +6912,92 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="K65" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="N65" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>222</v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="J66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="M66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>230</v>
@@ -7010,259 +7006,259 @@
         <v>228</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N67" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="O67" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="G71" s="1" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>233</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="J72" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="L72" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="N72" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>232</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>231</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>231</v>
@@ -7270,152 +7266,152 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H74" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="K74" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="L76" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="J77" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>224</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>224</v>
@@ -7423,93 +7419,132 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="K78" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="M78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="J79" s="1" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>233</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>233</v>
       </c>
       <c r="O79" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80">
-        <f>SUM(C2:C79)</f>
-        <v>78</v>
-      </c>
-      <c r="P80">
-        <f>SUM(P2:P79)</f>
+      <c r="G80" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <f>SUM(C2:C80)</f>
+        <v>79</v>
+      </c>
+      <c r="P81">
+        <f>SUM(P2:P80)</f>
         <v>36</v>
       </c>
-      <c r="Q80">
-        <f>SUM(Q2:Q79)/5</f>
+      <c r="Q81">
+        <f>SUM(Q2:Q80)/5</f>
         <v>7</v>
       </c>
     </row>
@@ -7519,18 +7554,18 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B41"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="B60:B79"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="B61:B80"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C41"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="C60:C79"/>
+    <mergeCell ref="C28:C42"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="C61:C80"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -730,10 +730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -744,33 +744,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -788,8 +774,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -805,84 +882,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,7 +897,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +981,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,13 +1023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,25 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,31 +1047,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,79 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,30 +1100,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1139,17 +1115,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,13 +1150,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4863,7 +4863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>202</v>
       </c>
@@ -4904,6 +4904,9 @@
       <c r="O14" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
@@ -7541,7 +7544,7 @@
       </c>
       <c r="P81">
         <f>SUM(P2:P80)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q81">
         <f>SUM(Q2:Q80)/5</f>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -730,15 +730,120 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -753,75 +858,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,15 +875,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,36 +883,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,7 +903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,7 +915,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,37 +1005,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,43 +1053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,54 +1072,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,8 +1094,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,13 +1115,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,8 +1133,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,26 +1178,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>188</v>
       </c>
@@ -4474,6 +4474,12 @@
       <c r="O4" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
@@ -7105,7 +7111,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
         <v>230</v>
       </c>
@@ -7143,6 +7149,9 @@
       <c r="O70" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
@@ -7544,11 +7553,11 @@
       </c>
       <c r="P81">
         <f>SUM(P2:P80)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q81">
         <f>SUM(Q2:Q80)/5</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -730,15 +730,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -751,13 +759,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -765,8 +767,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,24 +826,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,35 +849,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,9 +864,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,17 +881,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -903,7 +903,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,7 +921,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,43 +1029,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,61 +1059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,43 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,8 +1094,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,35 +1115,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,6 +1139,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1178,13 +1174,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6802,7 +6802,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
         <v>223</v>
       </c>
@@ -6840,6 +6840,9 @@
       <c r="O62" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
@@ -7198,7 +7201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
         <v>232</v>
       </c>
@@ -7236,6 +7239,12 @@
       <c r="O72" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
@@ -7553,11 +7562,11 @@
       </c>
       <c r="P81">
         <f>SUM(P2:P80)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q81">
         <f>SUM(Q2:Q80)/5</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -44,610 +44,610 @@
     <t>琼华梦璃</t>
   </si>
   <si>
+    <t>琼华天河</t>
+  </si>
+  <si>
+    <t>璇玑</t>
+  </si>
+  <si>
+    <t>怀朔</t>
+  </si>
+  <si>
+    <t>欧阳英</t>
+  </si>
+  <si>
+    <t>五前</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>市井混混</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>锤护院</t>
+  </si>
+  <si>
+    <t>罗汉腿</t>
+  </si>
+  <si>
+    <t>暗器手</t>
+  </si>
+  <si>
+    <t>拜月教徒</t>
+  </si>
+  <si>
+    <t>枪卒</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>霹雳武士</t>
+  </si>
+  <si>
+    <t>瘟神</t>
+  </si>
+  <si>
+    <t>赵无延</t>
+  </si>
+  <si>
+    <t>金蟾</t>
+  </si>
+  <si>
+    <t>蛇妖男</t>
+  </si>
+  <si>
+    <t>五毒巨蝎</t>
+  </si>
+  <si>
+    <t>书中仙</t>
+  </si>
+  <si>
+    <t>拜月使者</t>
+  </si>
+  <si>
+    <t>精精</t>
+  </si>
+  <si>
+    <t>兵器谱</t>
+  </si>
+  <si>
+    <t>赵文昌</t>
+  </si>
+  <si>
+    <t>小小蛮</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>双头冰蛇</t>
+  </si>
+  <si>
+    <t>小虎子</t>
+  </si>
+  <si>
+    <t>李大娘</t>
+  </si>
+  <si>
+    <t>姬三娘</t>
+  </si>
+  <si>
+    <t>唐钰</t>
+  </si>
+  <si>
+    <t>暗香</t>
+  </si>
+  <si>
+    <t>树妖</t>
+  </si>
+  <si>
+    <t>智杖和尚</t>
+  </si>
+  <si>
+    <t>九头蛇</t>
+  </si>
+  <si>
+    <t>狐妖女</t>
+  </si>
+  <si>
+    <t>毒娘子</t>
+  </si>
+  <si>
+    <t>香兰</t>
+  </si>
+  <si>
+    <t>刘晋元</t>
+  </si>
+  <si>
+    <t>韩医仙</t>
+  </si>
+  <si>
+    <t>韩梦慈</t>
+  </si>
+  <si>
+    <t>喻南松</t>
+  </si>
+  <si>
+    <t>巨灵神</t>
+  </si>
+  <si>
+    <t>古藤精</t>
+  </si>
+  <si>
+    <t>古藤老人</t>
+  </si>
+  <si>
+    <t>魔披风</t>
+  </si>
+  <si>
+    <t>唐泰</t>
+  </si>
+  <si>
+    <t>唐益</t>
+  </si>
+  <si>
+    <t>罗如烈</t>
+  </si>
+  <si>
+    <t>耀甲</t>
+  </si>
+  <si>
+    <t>海富贵</t>
+  </si>
+  <si>
+    <t>雪纹兽</t>
+  </si>
+  <si>
+    <t>智修大师</t>
+  </si>
+  <si>
+    <t>小石头</t>
+  </si>
+  <si>
+    <t>巫王</t>
+  </si>
+  <si>
+    <t>火麒麟</t>
+  </si>
+  <si>
+    <t>骷髅将军</t>
+  </si>
+  <si>
+    <t>彩依</t>
+  </si>
+  <si>
+    <t>盖罗娇</t>
+  </si>
+  <si>
+    <t>姜婉儿</t>
+  </si>
+  <si>
+    <t>姥姥</t>
+  </si>
+  <si>
+    <t>木道人</t>
+  </si>
+  <si>
+    <t>金翅凤凰</t>
+  </si>
+  <si>
+    <t>金蟾鬼母</t>
+  </si>
+  <si>
+    <t>苍萤</t>
+  </si>
+  <si>
+    <t>万玉枝</t>
+  </si>
+  <si>
+    <t>炎邪女</t>
+  </si>
+  <si>
+    <t>欧阳慧</t>
+  </si>
+  <si>
+    <t>夏孤临</t>
+  </si>
+  <si>
+    <t>腥鬼</t>
+  </si>
+  <si>
+    <t>夏侯韬</t>
+  </si>
+  <si>
+    <t>欧阳倩</t>
+  </si>
+  <si>
+    <t>圣姑</t>
+  </si>
+  <si>
+    <t>林天南</t>
+  </si>
+  <si>
+    <t>土神龙</t>
+  </si>
+  <si>
+    <t>冰神龙</t>
+  </si>
+  <si>
+    <t>雷神龙</t>
+  </si>
+  <si>
+    <t>火神龙</t>
+  </si>
+  <si>
+    <t>风神龙</t>
+  </si>
+  <si>
+    <t>姜清</t>
+  </si>
+  <si>
+    <t>石长老</t>
+  </si>
+  <si>
+    <t>赤鬼王</t>
+  </si>
+  <si>
+    <t>地魔兽</t>
+  </si>
+  <si>
+    <t>敖耶神牛</t>
+  </si>
+  <si>
+    <t>神将军</t>
+  </si>
+  <si>
+    <t>云霆</t>
+  </si>
+  <si>
+    <t>溪风</t>
+  </si>
+  <si>
+    <t>炎帝侍</t>
+  </si>
+  <si>
+    <t>仙缘1</t>
+  </si>
+  <si>
+    <t>仙缘2</t>
+  </si>
+  <si>
+    <t>仙缘31</t>
+  </si>
+  <si>
+    <t>仙缘32</t>
+  </si>
+  <si>
+    <t>仙缘33</t>
+  </si>
+  <si>
+    <t>仙缘34</t>
+  </si>
+  <si>
+    <t>绝技1</t>
+  </si>
+  <si>
+    <t>绝技21</t>
+  </si>
+  <si>
+    <t>绝技22</t>
+  </si>
+  <si>
+    <t>绝技31</t>
+  </si>
+  <si>
+    <t>绝技32</t>
+  </si>
+  <si>
+    <t>绝技33</t>
+  </si>
+  <si>
+    <t>巫后</t>
+  </si>
+  <si>
+    <t>夕瑶</t>
+  </si>
+  <si>
+    <t>水魔兽</t>
+  </si>
+  <si>
+    <t>紫萱</t>
+  </si>
+  <si>
+    <t>赵灵儿</t>
+  </si>
+  <si>
+    <t>李忆如</t>
+  </si>
+  <si>
+    <t>小蛮</t>
+  </si>
+  <si>
+    <t>镇狱明王</t>
+  </si>
+  <si>
+    <t>邪剑仙</t>
+  </si>
+  <si>
+    <t>拜月教主</t>
+  </si>
+  <si>
+    <t>雷元戈</t>
+  </si>
+  <si>
+    <t>李逍遥</t>
+  </si>
+  <si>
+    <t>林月如</t>
+  </si>
+  <si>
+    <t>阿奴</t>
+  </si>
+  <si>
+    <t>瑕</t>
+  </si>
+  <si>
+    <t>苏媚</t>
+  </si>
+  <si>
+    <t>草谷</t>
+  </si>
+  <si>
+    <t>天鬼皇</t>
+  </si>
+  <si>
+    <t>孔磷</t>
+  </si>
+  <si>
+    <t>王小虎</t>
+  </si>
+  <si>
+    <t>天魑皇</t>
+  </si>
+  <si>
+    <t>帝江神兽</t>
+  </si>
+  <si>
+    <t>青阳</t>
+  </si>
+  <si>
+    <t>千叶禅师</t>
+  </si>
+  <si>
+    <t>天妖皇</t>
+  </si>
+  <si>
+    <t>燎日</t>
+  </si>
+  <si>
+    <t>沈欺霜</t>
+  </si>
+  <si>
+    <t>冰晶女</t>
+  </si>
+  <si>
+    <t>妖灵雪女</t>
+  </si>
+  <si>
+    <t>火灵炎舞</t>
+  </si>
+  <si>
+    <t>熔岩兽王</t>
+  </si>
+  <si>
+    <t>黑豹</t>
+  </si>
+  <si>
+    <t>衔烛之龙</t>
+  </si>
+  <si>
+    <t>句芒</t>
+  </si>
+  <si>
+    <t>巨龙穹武</t>
+  </si>
+  <si>
+    <t>清微</t>
+  </si>
+  <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>一贫</t>
+  </si>
+  <si>
+    <t>太武</t>
+  </si>
+  <si>
+    <t>红葵</t>
+  </si>
+  <si>
+    <t>蓝葵</t>
+  </si>
+  <si>
+    <t>结萝</t>
+  </si>
+  <si>
+    <t>慕容紫英</t>
+  </si>
+  <si>
+    <t>唐雪见</t>
+  </si>
+  <si>
+    <t>景天</t>
+  </si>
+  <si>
+    <t>花楹</t>
+  </si>
+  <si>
+    <t>王蓬絮</t>
+  </si>
+  <si>
+    <t>三外</t>
+  </si>
+  <si>
+    <t>温慧</t>
+  </si>
+  <si>
+    <t>南宫煌</t>
+  </si>
+  <si>
+    <t>星璇</t>
+  </si>
+  <si>
+    <t>酒剑仙</t>
+  </si>
+  <si>
+    <t>岚翼</t>
+  </si>
+  <si>
+    <t>夙瑶</t>
+  </si>
+  <si>
+    <t>韩菱纱</t>
+  </si>
+  <si>
+    <t>柳梦璃</t>
+  </si>
+  <si>
+    <t>云天河</t>
+  </si>
+  <si>
+    <t>云天青</t>
+  </si>
+  <si>
+    <t>玄霄</t>
+  </si>
+  <si>
+    <t>夙玉</t>
+  </si>
+  <si>
+    <t>姜云凡</t>
+  </si>
+  <si>
+    <t>唐雨柔</t>
+  </si>
+  <si>
+    <t>皇甫卓</t>
+  </si>
+  <si>
+    <t>龙幽</t>
+  </si>
+  <si>
+    <t>凌波</t>
+  </si>
+  <si>
+    <t>龙溟</t>
+  </si>
+  <si>
+    <t>凌音</t>
+  </si>
+  <si>
+    <t>暮菖兰</t>
+  </si>
+  <si>
+    <t>枯木</t>
+  </si>
+  <si>
+    <t>姜承</t>
+  </si>
+  <si>
+    <t>厉岩</t>
+  </si>
+  <si>
+    <t>谢沧行</t>
+  </si>
+  <si>
+    <t>夏侯瑾轩</t>
+  </si>
+  <si>
+    <t>云裳</t>
+  </si>
+  <si>
+    <t>云裳部件</t>
+  </si>
+  <si>
+    <t>南蛮王</t>
+  </si>
+  <si>
+    <t>海棠夫人</t>
+  </si>
+  <si>
+    <t>厉江流</t>
+  </si>
+  <si>
+    <t>灵月宫主</t>
+  </si>
+  <si>
+    <t>李三思</t>
+  </si>
+  <si>
+    <t>葛巧菱</t>
+  </si>
+  <si>
+    <t>柔情月如</t>
+  </si>
+  <si>
+    <t>掌门逍遥</t>
+  </si>
+  <si>
+    <t>闲卿</t>
+  </si>
+  <si>
+    <t>太清真人</t>
+  </si>
+  <si>
+    <t>梦蛇灵儿</t>
+  </si>
+  <si>
+    <t>铁笔</t>
+  </si>
+  <si>
+    <t>盛尊武</t>
+  </si>
+  <si>
+    <t>梦蛇紫萱</t>
+  </si>
+  <si>
+    <t>越祈</t>
+  </si>
+  <si>
+    <t>公主龙葵</t>
+  </si>
+  <si>
+    <t>太子龙阳</t>
+  </si>
+  <si>
+    <t>魔尊重楼</t>
+  </si>
+  <si>
+    <t>掌门长卿</t>
+  </si>
+  <si>
+    <t>藏锋</t>
+  </si>
+  <si>
+    <t>飞蓬</t>
+  </si>
+  <si>
+    <t>重楼</t>
+  </si>
+  <si>
     <t>琼华菱纱</t>
   </si>
   <si>
-    <t>琼华天河</t>
-  </si>
-  <si>
-    <t>璇玑</t>
-  </si>
-  <si>
-    <t>怀朔</t>
-  </si>
-  <si>
-    <t>欧阳英</t>
-  </si>
-  <si>
-    <t>五前</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>市井混混</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>锤护院</t>
-  </si>
-  <si>
-    <t>罗汉腿</t>
-  </si>
-  <si>
-    <t>暗器手</t>
-  </si>
-  <si>
-    <t>拜月教徒</t>
-  </si>
-  <si>
-    <t>枪卒</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>霹雳武士</t>
-  </si>
-  <si>
-    <t>瘟神</t>
-  </si>
-  <si>
-    <t>赵无延</t>
-  </si>
-  <si>
-    <t>金蟾</t>
-  </si>
-  <si>
-    <t>蛇妖男</t>
-  </si>
-  <si>
-    <t>五毒巨蝎</t>
-  </si>
-  <si>
-    <t>书中仙</t>
-  </si>
-  <si>
-    <t>拜月使者</t>
-  </si>
-  <si>
-    <t>精精</t>
-  </si>
-  <si>
-    <t>兵器谱</t>
-  </si>
-  <si>
-    <t>赵文昌</t>
-  </si>
-  <si>
-    <t>小小蛮</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>双头冰蛇</t>
-  </si>
-  <si>
-    <t>小虎子</t>
-  </si>
-  <si>
-    <t>李大娘</t>
-  </si>
-  <si>
-    <t>姬三娘</t>
-  </si>
-  <si>
-    <t>唐钰</t>
-  </si>
-  <si>
-    <t>暗香</t>
-  </si>
-  <si>
-    <t>树妖</t>
-  </si>
-  <si>
-    <t>智杖和尚</t>
-  </si>
-  <si>
-    <t>九头蛇</t>
-  </si>
-  <si>
-    <t>狐妖女</t>
-  </si>
-  <si>
-    <t>毒娘子</t>
-  </si>
-  <si>
-    <t>香兰</t>
-  </si>
-  <si>
-    <t>刘晋元</t>
-  </si>
-  <si>
-    <t>韩医仙</t>
-  </si>
-  <si>
-    <t>韩梦慈</t>
-  </si>
-  <si>
-    <t>喻南松</t>
-  </si>
-  <si>
-    <t>巨灵神</t>
-  </si>
-  <si>
-    <t>古藤精</t>
-  </si>
-  <si>
-    <t>古藤老人</t>
-  </si>
-  <si>
-    <t>魔披风</t>
-  </si>
-  <si>
-    <t>唐泰</t>
-  </si>
-  <si>
-    <t>唐益</t>
-  </si>
-  <si>
-    <t>罗如烈</t>
-  </si>
-  <si>
-    <t>耀甲</t>
-  </si>
-  <si>
-    <t>海富贵</t>
-  </si>
-  <si>
-    <t>雪纹兽</t>
-  </si>
-  <si>
-    <t>智修大师</t>
-  </si>
-  <si>
-    <t>小石头</t>
-  </si>
-  <si>
-    <t>巫王</t>
-  </si>
-  <si>
-    <t>火麒麟</t>
-  </si>
-  <si>
-    <t>骷髅将军</t>
-  </si>
-  <si>
-    <t>彩依</t>
-  </si>
-  <si>
-    <t>盖罗娇</t>
-  </si>
-  <si>
-    <t>姜婉儿</t>
-  </si>
-  <si>
-    <t>姥姥</t>
-  </si>
-  <si>
-    <t>木道人</t>
-  </si>
-  <si>
-    <t>金翅凤凰</t>
-  </si>
-  <si>
-    <t>金蟾鬼母</t>
-  </si>
-  <si>
-    <t>苍萤</t>
-  </si>
-  <si>
-    <t>万玉枝</t>
-  </si>
-  <si>
-    <t>炎邪女</t>
-  </si>
-  <si>
-    <t>欧阳慧</t>
-  </si>
-  <si>
-    <t>夏孤临</t>
-  </si>
-  <si>
-    <t>腥鬼</t>
-  </si>
-  <si>
-    <t>夏侯韬</t>
-  </si>
-  <si>
-    <t>欧阳倩</t>
-  </si>
-  <si>
-    <t>圣姑</t>
-  </si>
-  <si>
-    <t>林天南</t>
-  </si>
-  <si>
-    <t>土神龙</t>
-  </si>
-  <si>
-    <t>冰神龙</t>
-  </si>
-  <si>
-    <t>雷神龙</t>
-  </si>
-  <si>
-    <t>火神龙</t>
-  </si>
-  <si>
-    <t>风神龙</t>
-  </si>
-  <si>
-    <t>姜清</t>
-  </si>
-  <si>
-    <t>石长老</t>
-  </si>
-  <si>
-    <t>赤鬼王</t>
-  </si>
-  <si>
-    <t>地魔兽</t>
-  </si>
-  <si>
-    <t>敖耶神牛</t>
-  </si>
-  <si>
-    <t>神将军</t>
-  </si>
-  <si>
-    <t>云霆</t>
-  </si>
-  <si>
-    <t>溪风</t>
-  </si>
-  <si>
-    <t>炎帝侍</t>
-  </si>
-  <si>
-    <t>仙缘1</t>
-  </si>
-  <si>
-    <t>仙缘2</t>
-  </si>
-  <si>
-    <t>仙缘31</t>
-  </si>
-  <si>
-    <t>仙缘32</t>
-  </si>
-  <si>
-    <t>仙缘33</t>
-  </si>
-  <si>
-    <t>仙缘34</t>
-  </si>
-  <si>
-    <t>绝技1</t>
-  </si>
-  <si>
-    <t>绝技21</t>
-  </si>
-  <si>
-    <t>绝技22</t>
-  </si>
-  <si>
-    <t>绝技31</t>
-  </si>
-  <si>
-    <t>绝技32</t>
-  </si>
-  <si>
-    <t>绝技33</t>
-  </si>
-  <si>
-    <t>巫后</t>
-  </si>
-  <si>
-    <t>夕瑶</t>
-  </si>
-  <si>
-    <t>水魔兽</t>
-  </si>
-  <si>
-    <t>紫萱</t>
-  </si>
-  <si>
-    <t>赵灵儿</t>
-  </si>
-  <si>
-    <t>李忆如</t>
-  </si>
-  <si>
-    <t>小蛮</t>
-  </si>
-  <si>
-    <t>镇狱明王</t>
-  </si>
-  <si>
-    <t>邪剑仙</t>
-  </si>
-  <si>
-    <t>拜月教主</t>
-  </si>
-  <si>
-    <t>雷元戈</t>
-  </si>
-  <si>
-    <t>李逍遥</t>
-  </si>
-  <si>
-    <t>林月如</t>
-  </si>
-  <si>
-    <t>阿奴</t>
-  </si>
-  <si>
-    <t>瑕</t>
-  </si>
-  <si>
-    <t>苏媚</t>
-  </si>
-  <si>
-    <t>草谷</t>
-  </si>
-  <si>
-    <t>天鬼皇</t>
-  </si>
-  <si>
-    <t>孔磷</t>
-  </si>
-  <si>
-    <t>王小虎</t>
-  </si>
-  <si>
-    <t>天魑皇</t>
-  </si>
-  <si>
-    <t>帝江神兽</t>
-  </si>
-  <si>
-    <t>青阳</t>
-  </si>
-  <si>
-    <t>千叶禅师</t>
-  </si>
-  <si>
-    <t>天妖皇</t>
-  </si>
-  <si>
-    <t>燎日</t>
-  </si>
-  <si>
-    <t>沈欺霜</t>
-  </si>
-  <si>
-    <t>冰晶女</t>
-  </si>
-  <si>
-    <t>妖灵雪女</t>
-  </si>
-  <si>
-    <t>火灵炎舞</t>
-  </si>
-  <si>
-    <t>熔岩兽王</t>
-  </si>
-  <si>
-    <t>黑豹</t>
-  </si>
-  <si>
-    <t>衔烛之龙</t>
-  </si>
-  <si>
-    <t>句芒</t>
-  </si>
-  <si>
-    <t>巨龙穹武</t>
-  </si>
-  <si>
-    <t>清微</t>
-  </si>
-  <si>
-    <t>徐长卿</t>
-  </si>
-  <si>
-    <t>剑圣</t>
-  </si>
-  <si>
-    <t>一贫</t>
-  </si>
-  <si>
-    <t>太武</t>
-  </si>
-  <si>
-    <t>红葵</t>
-  </si>
-  <si>
-    <t>蓝葵</t>
-  </si>
-  <si>
-    <t>结萝</t>
-  </si>
-  <si>
-    <t>慕容紫英</t>
-  </si>
-  <si>
-    <t>唐雪见</t>
-  </si>
-  <si>
-    <t>景天</t>
-  </si>
-  <si>
-    <t>花楹</t>
-  </si>
-  <si>
-    <t>王蓬絮</t>
-  </si>
-  <si>
-    <t>三外</t>
-  </si>
-  <si>
-    <t>温慧</t>
-  </si>
-  <si>
-    <t>南宫煌</t>
-  </si>
-  <si>
-    <t>星璇</t>
-  </si>
-  <si>
-    <t>酒剑仙</t>
-  </si>
-  <si>
-    <t>岚翼</t>
-  </si>
-  <si>
-    <t>夙瑶</t>
-  </si>
-  <si>
-    <t>韩菱纱</t>
-  </si>
-  <si>
-    <t>柳梦璃</t>
-  </si>
-  <si>
-    <t>云天河</t>
-  </si>
-  <si>
-    <t>云天青</t>
-  </si>
-  <si>
-    <t>玄霄</t>
-  </si>
-  <si>
-    <t>夙玉</t>
-  </si>
-  <si>
-    <t>姜云凡</t>
-  </si>
-  <si>
-    <t>唐雨柔</t>
-  </si>
-  <si>
-    <t>皇甫卓</t>
-  </si>
-  <si>
-    <t>龙幽</t>
-  </si>
-  <si>
-    <t>凌波</t>
-  </si>
-  <si>
-    <t>龙溟</t>
-  </si>
-  <si>
-    <t>凌音</t>
-  </si>
-  <si>
-    <t>暮菖兰</t>
-  </si>
-  <si>
-    <t>枯木</t>
-  </si>
-  <si>
-    <t>姜承</t>
-  </si>
-  <si>
-    <t>厉岩</t>
-  </si>
-  <si>
-    <t>谢沧行</t>
-  </si>
-  <si>
-    <t>夏侯瑾轩</t>
-  </si>
-  <si>
-    <t>云裳</t>
-  </si>
-  <si>
-    <t>云裳部件</t>
-  </si>
-  <si>
-    <t>南蛮王</t>
-  </si>
-  <si>
-    <t>海棠夫人</t>
-  </si>
-  <si>
-    <t>厉江流</t>
-  </si>
-  <si>
-    <t>灵月宫主</t>
-  </si>
-  <si>
-    <t>李三思</t>
-  </si>
-  <si>
-    <t>葛巧菱</t>
-  </si>
-  <si>
-    <t>柔情月如</t>
-  </si>
-  <si>
-    <t>掌门逍遥</t>
-  </si>
-  <si>
-    <t>闲卿</t>
-  </si>
-  <si>
-    <t>太清真人</t>
-  </si>
-  <si>
-    <t>梦蛇灵儿</t>
-  </si>
-  <si>
-    <t>铁笔</t>
-  </si>
-  <si>
-    <t>盛尊武</t>
-  </si>
-  <si>
-    <t>梦蛇紫萱</t>
-  </si>
-  <si>
-    <t>越祈</t>
-  </si>
-  <si>
-    <t>公主龙葵</t>
-  </si>
-  <si>
-    <t>太子龙阳</t>
-  </si>
-  <si>
-    <t>魔尊重楼</t>
-  </si>
-  <si>
-    <t>掌门长卿</t>
-  </si>
-  <si>
-    <t>藏锋</t>
-  </si>
-  <si>
-    <t>飞蓬</t>
-  </si>
-  <si>
-    <t>重楼</t>
+    <t>夙莘</t>
   </si>
   <si>
     <t>紫英仙人</t>
-  </si>
-  <si>
-    <t>夙莘</t>
   </si>
   <si>
     <t>居十方</t>
@@ -730,10 +730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -744,8 +744,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -767,11 +796,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,91 +810,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,6 +840,53 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -897,7 +897,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +945,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,13 +975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +1017,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,13 +1053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,97 +1071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,6 +1088,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1124,6 +1148,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1149,45 +1188,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1196,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,16 +1208,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1226,115 +1226,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1670,7 +1670,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1708,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1743,33 +1743,26 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <f>SUM(C2:C9)</f>
-        <v>8</v>
+      <c r="C9" s="2">
+        <f>SUM(C2:C8)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1802,10 +1795,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1813,34 +1806,34 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1848,25 +1841,25 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -1909,10 +1902,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1920,38 +1913,38 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1959,24 +1952,24 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1984,14 +1977,14 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -2036,10 +2029,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>14</v>
@@ -2047,98 +2040,98 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -2149,10 +2142,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
         <v>7</v>
@@ -2160,52 +2153,52 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2213,21 +2206,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
         <f>SUM(C2:C26)</f>
@@ -2272,10 +2265,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
@@ -2283,87 +2276,87 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -2371,24 +2364,24 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -2396,17 +2389,17 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -2414,21 +2407,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
         <f>SUM(C2:C21)</f>
@@ -2475,10 +2468,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -2486,80 +2479,80 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -2567,31 +2560,31 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2599,7 +2592,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <f>SUM(C2:C17)</f>
@@ -2645,350 +2638,350 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="M8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -3000,658 +2993,658 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="M10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="J16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="M16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="N17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="M18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="G20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="L20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -3660,592 +3653,592 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="F29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="J29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="O29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="O30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="K31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="N31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="G32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="M32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="M38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="L40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="O40" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="L41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="O41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="H42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="N42" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="K43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <f>SUM(C2:C43)</f>
@@ -4277,7 +4270,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4302,90 +4295,90 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -4393,41 +4386,41 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -4438,41 +4431,41 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -4483,41 +4476,41 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -4525,44 +4518,44 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P6">
         <v>3</v>
@@ -4570,80 +4563,80 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -4651,7 +4644,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -4660,37 +4653,37 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -4701,41 +4694,41 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -4743,124 +4736,124 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="M12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -4871,44 +4864,44 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -4916,86 +4909,86 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -5003,38 +4996,38 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -5042,316 +5035,316 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -5362,91 +5355,91 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>7</v>
@@ -5458,340 +5451,344 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>176</v>
+        <v>209</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>167</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>215</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>215</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>215</v>
@@ -5799,80 +5796,80 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -5881,291 +5878,285 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>167</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="1">
-        <v>10</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P43">
-        <v>2</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
       <c r="D44" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="I45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="L45" s="1" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -6173,44 +6164,44 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>217</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="K46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="M46" s="1" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="N46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -6218,35 +6209,44 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>196</v>
+      <c r="G47" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="K47" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="N47" s="1" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -6254,44 +6254,35 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>146</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>146</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>146</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -6299,38 +6290,44 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>172</v>
+        <v>217</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -6338,370 +6335,373 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="P50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>115</v>
+        <v>216</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="N52" s="1" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="1">
-        <v>8</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>140</v>
+        <v>112</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E54" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="J54" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>177</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G59" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>177</v>
@@ -6710,7 +6710,7 @@
         <v>172</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>177</v>
@@ -6718,100 +6718,97 @@
       <c r="O59" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>151</v>
+        <v>195</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="P60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C62" s="1">
         <v>20</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>222</v>
@@ -6820,139 +6817,142 @@
         <v>220</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>222</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>222</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="J63" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="J64" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="M64" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>227</v>
+      <c r="P64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="J65" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>227</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>227</v>
@@ -6960,95 +6960,92 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="K66" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L66" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="M66" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="N66" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>222</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="J67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="M67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>230</v>
@@ -7057,184 +7054,178 @@
         <v>228</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L68" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N68" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="O68" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="P71">
         <v>1</v>
       </c>
-      <c r="Q71">
-        <v>5</v>
-      </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>233</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>233</v>
@@ -7246,79 +7237,85 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G73" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="J73" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="L73" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M73" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="N73" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>232</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>231</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>231</v>
@@ -7326,152 +7323,152 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="H75" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="K75" s="1" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="L77" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="J78" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>224</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>224</v>
@@ -7479,93 +7476,132 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="K79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="M79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="J80" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>233</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>233</v>
       </c>
       <c r="O80" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81">
-        <f>SUM(C2:C80)</f>
-        <v>79</v>
-      </c>
-      <c r="P81">
-        <f>SUM(P2:P80)</f>
+      <c r="G81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <f>SUM(C2:C81)</f>
+        <v>80</v>
+      </c>
+      <c r="P82">
+        <f>SUM(P2:P81)</f>
         <v>41</v>
       </c>
-      <c r="Q81">
-        <f>SUM(Q2:Q80)/5</f>
+      <c r="Q82">
+        <f>SUM(Q2:Q81)/5</f>
         <v>9</v>
       </c>
     </row>
@@ -7575,18 +7611,18 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="B61:B80"/>
+    <mergeCell ref="B28:B43"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="B62:B81"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C42"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="C61:C80"/>
+    <mergeCell ref="C28:C43"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="C62:C81"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -731,9 +731,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -744,9 +744,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,6 +765,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -790,14 +790,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,6 +798,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,7 +820,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,7 +828,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,24 +850,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,15 +868,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,7 +897,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,67 +999,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,25 +1023,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,61 +1059,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,39 +1088,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1143,22 +1110,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,11 +1132,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,7 +1208,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,124 +1217,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5261,7 +5261,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>188</v>
       </c>
@@ -5303,6 +5303,12 @@
       </c>
       <c r="O24" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -6958,7 +6964,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
         <v>226</v>
       </c>
@@ -6993,6 +6999,9 @@
       <c r="O66" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
@@ -7598,11 +7607,11 @@
       </c>
       <c r="P82">
         <f>SUM(P2:P81)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q82">
         <f>SUM(Q2:Q81)/5</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -731,14 +731,51 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -752,20 +789,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -774,30 +803,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,15 +819,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,15 +836,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,31 +873,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,19 +897,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,49 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,19 +969,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,61 +1071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,6 +1088,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1109,8 +1127,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,22 +1148,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,26 +1178,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7522,7 +7522,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
         <v>198</v>
       </c>
@@ -7557,6 +7557,9 @@
       <c r="O80" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
@@ -7607,7 +7610,7 @@
       </c>
       <c r="P82">
         <f>SUM(P2:P81)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q82">
         <f>SUM(Q2:Q81)/5</f>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -730,10 +730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -744,30 +744,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,6 +767,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -795,6 +790,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -810,41 +865,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,37 +883,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,7 +897,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,31 +1017,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,19 +1059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,115 +1071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,55 +1095,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,6 +1116,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1174,6 +1141,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>200</v>
       </c>
@@ -4947,6 +4947,12 @@
       </c>
       <c r="O15" s="1" t="s">
         <v>205</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -5878,7 +5884,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>141</v>
       </c>
@@ -5916,6 +5922,9 @@
       <c r="O39" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
@@ -7610,11 +7619,11 @@
       </c>
       <c r="P82">
         <f>SUM(P2:P81)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q82">
         <f>SUM(Q2:Q81)/5</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CardList.xlsx
+++ b/src/main/resources/CardList.xlsx
@@ -35,619 +35,619 @@
     <t>二</t>
   </si>
   <si>
+    <t>琼华梦璃</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>琼华天河</t>
+  </si>
+  <si>
+    <t>璇玑</t>
+  </si>
+  <si>
+    <t>怀朔</t>
+  </si>
+  <si>
+    <t>欧阳英</t>
+  </si>
+  <si>
+    <t>五前</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>市井混混</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>锤护院</t>
+  </si>
+  <si>
+    <t>罗汉腿</t>
+  </si>
+  <si>
+    <t>暗器手</t>
+  </si>
+  <si>
+    <t>拜月教徒</t>
+  </si>
+  <si>
+    <t>枪卒</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>霹雳武士</t>
+  </si>
+  <si>
+    <t>瘟神</t>
+  </si>
+  <si>
+    <t>赵无延</t>
+  </si>
+  <si>
+    <t>金蟾</t>
+  </si>
+  <si>
+    <t>蛇妖男</t>
+  </si>
+  <si>
+    <t>五毒巨蝎</t>
+  </si>
+  <si>
+    <t>书中仙</t>
+  </si>
+  <si>
+    <t>拜月使者</t>
+  </si>
+  <si>
+    <t>精精</t>
+  </si>
+  <si>
+    <t>兵器谱</t>
+  </si>
+  <si>
+    <t>赵文昌</t>
+  </si>
+  <si>
+    <t>小小蛮</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>双头冰蛇</t>
+  </si>
+  <si>
+    <t>小虎子</t>
+  </si>
+  <si>
+    <t>李大娘</t>
+  </si>
+  <si>
+    <t>姬三娘</t>
+  </si>
+  <si>
+    <t>唐钰</t>
+  </si>
+  <si>
+    <t>暗香</t>
+  </si>
+  <si>
+    <t>树妖</t>
+  </si>
+  <si>
+    <t>智杖和尚</t>
+  </si>
+  <si>
+    <t>九头蛇</t>
+  </si>
+  <si>
+    <t>狐妖女</t>
+  </si>
+  <si>
+    <t>毒娘子</t>
+  </si>
+  <si>
+    <t>香兰</t>
+  </si>
+  <si>
+    <t>刘晋元</t>
+  </si>
+  <si>
+    <t>韩医仙</t>
+  </si>
+  <si>
+    <t>韩梦慈</t>
+  </si>
+  <si>
+    <t>喻南松</t>
+  </si>
+  <si>
+    <t>巨灵神</t>
+  </si>
+  <si>
+    <t>古藤精</t>
+  </si>
+  <si>
+    <t>古藤老人</t>
+  </si>
+  <si>
+    <t>魔披风</t>
+  </si>
+  <si>
+    <t>唐泰</t>
+  </si>
+  <si>
+    <t>唐益</t>
+  </si>
+  <si>
+    <t>罗如烈</t>
+  </si>
+  <si>
+    <t>耀甲</t>
+  </si>
+  <si>
+    <t>海富贵</t>
+  </si>
+  <si>
+    <t>雪纹兽</t>
+  </si>
+  <si>
+    <t>智修大师</t>
+  </si>
+  <si>
+    <t>小石头</t>
+  </si>
+  <si>
+    <t>巫王</t>
+  </si>
+  <si>
+    <t>火麒麟</t>
+  </si>
+  <si>
+    <t>骷髅将军</t>
+  </si>
+  <si>
+    <t>彩依</t>
+  </si>
+  <si>
+    <t>盖罗娇</t>
+  </si>
+  <si>
+    <t>姜婉儿</t>
+  </si>
+  <si>
+    <t>姥姥</t>
+  </si>
+  <si>
+    <t>木道人</t>
+  </si>
+  <si>
+    <t>金翅凤凰</t>
+  </si>
+  <si>
+    <t>金蟾鬼母</t>
+  </si>
+  <si>
+    <t>苍萤</t>
+  </si>
+  <si>
+    <t>万玉枝</t>
+  </si>
+  <si>
+    <t>炎邪女</t>
+  </si>
+  <si>
+    <t>欧阳慧</t>
+  </si>
+  <si>
+    <t>夏孤临</t>
+  </si>
+  <si>
+    <t>腥鬼</t>
+  </si>
+  <si>
+    <t>夏侯韬</t>
+  </si>
+  <si>
+    <t>欧阳倩</t>
+  </si>
+  <si>
+    <t>圣姑</t>
+  </si>
+  <si>
+    <t>林天南</t>
+  </si>
+  <si>
+    <t>土神龙</t>
+  </si>
+  <si>
+    <t>冰神龙</t>
+  </si>
+  <si>
+    <t>雷神龙</t>
+  </si>
+  <si>
+    <t>火神龙</t>
+  </si>
+  <si>
+    <t>风神龙</t>
+  </si>
+  <si>
+    <t>姜清</t>
+  </si>
+  <si>
+    <t>石长老</t>
+  </si>
+  <si>
+    <t>赤鬼王</t>
+  </si>
+  <si>
+    <t>地魔兽</t>
+  </si>
+  <si>
+    <t>敖耶神牛</t>
+  </si>
+  <si>
+    <t>神将军</t>
+  </si>
+  <si>
+    <t>云霆</t>
+  </si>
+  <si>
+    <t>溪风</t>
+  </si>
+  <si>
+    <t>炎帝侍</t>
+  </si>
+  <si>
+    <t>仙缘1</t>
+  </si>
+  <si>
+    <t>仙缘2</t>
+  </si>
+  <si>
+    <t>仙缘31</t>
+  </si>
+  <si>
+    <t>仙缘32</t>
+  </si>
+  <si>
+    <t>仙缘33</t>
+  </si>
+  <si>
+    <t>仙缘34</t>
+  </si>
+  <si>
+    <t>绝技1</t>
+  </si>
+  <si>
+    <t>绝技21</t>
+  </si>
+  <si>
+    <t>绝技22</t>
+  </si>
+  <si>
+    <t>绝技31</t>
+  </si>
+  <si>
+    <t>绝技32</t>
+  </si>
+  <si>
+    <t>绝技33</t>
+  </si>
+  <si>
+    <t>巫后</t>
+  </si>
+  <si>
+    <t>夕瑶</t>
+  </si>
+  <si>
+    <t>水魔兽</t>
+  </si>
+  <si>
+    <t>紫萱</t>
+  </si>
+  <si>
+    <t>赵灵儿</t>
+  </si>
+  <si>
+    <t>李忆如</t>
+  </si>
+  <si>
+    <t>小蛮</t>
+  </si>
+  <si>
+    <t>镇狱明王</t>
+  </si>
+  <si>
+    <t>邪剑仙</t>
+  </si>
+  <si>
+    <t>拜月教主</t>
+  </si>
+  <si>
+    <t>雷元戈</t>
+  </si>
+  <si>
+    <t>李逍遥</t>
+  </si>
+  <si>
+    <t>林月如</t>
+  </si>
+  <si>
+    <t>阿奴</t>
+  </si>
+  <si>
+    <t>瑕</t>
+  </si>
+  <si>
+    <t>苏媚</t>
+  </si>
+  <si>
+    <t>草谷</t>
+  </si>
+  <si>
+    <t>天鬼皇</t>
+  </si>
+  <si>
+    <t>孔磷</t>
+  </si>
+  <si>
+    <t>王小虎</t>
+  </si>
+  <si>
+    <t>天魑皇</t>
+  </si>
+  <si>
+    <t>帝江神兽</t>
+  </si>
+  <si>
+    <t>青阳</t>
+  </si>
+  <si>
+    <t>千叶禅师</t>
+  </si>
+  <si>
+    <t>天妖皇</t>
+  </si>
+  <si>
+    <t>燎日</t>
+  </si>
+  <si>
+    <t>沈欺霜</t>
+  </si>
+  <si>
+    <t>冰晶女</t>
+  </si>
+  <si>
+    <t>妖灵雪女</t>
+  </si>
+  <si>
+    <t>火灵炎舞</t>
+  </si>
+  <si>
+    <t>熔岩兽王</t>
+  </si>
+  <si>
+    <t>黑豹</t>
+  </si>
+  <si>
+    <t>衔烛之龙</t>
+  </si>
+  <si>
+    <t>句芒</t>
+  </si>
+  <si>
+    <t>巨龙穹武</t>
+  </si>
+  <si>
+    <t>清微</t>
+  </si>
+  <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>一贫</t>
+  </si>
+  <si>
+    <t>太武</t>
+  </si>
+  <si>
+    <t>红葵</t>
+  </si>
+  <si>
+    <t>蓝葵</t>
+  </si>
+  <si>
+    <t>结萝</t>
+  </si>
+  <si>
+    <t>慕容紫英</t>
+  </si>
+  <si>
+    <t>唐雪见</t>
+  </si>
+  <si>
+    <t>景天</t>
+  </si>
+  <si>
+    <t>花楹</t>
+  </si>
+  <si>
+    <t>王蓬絮</t>
+  </si>
+  <si>
+    <t>三外</t>
+  </si>
+  <si>
+    <t>温慧</t>
+  </si>
+  <si>
+    <t>南宫煌</t>
+  </si>
+  <si>
+    <t>星璇</t>
+  </si>
+  <si>
+    <t>酒剑仙</t>
+  </si>
+  <si>
+    <t>岚翼</t>
+  </si>
+  <si>
+    <t>夙瑶</t>
+  </si>
+  <si>
+    <t>韩菱纱</t>
+  </si>
+  <si>
+    <t>柳梦璃</t>
+  </si>
+  <si>
+    <t>云天河</t>
+  </si>
+  <si>
+    <t>云天青</t>
+  </si>
+  <si>
+    <t>玄霄</t>
+  </si>
+  <si>
+    <t>夙玉</t>
+  </si>
+  <si>
+    <t>姜云凡</t>
+  </si>
+  <si>
+    <t>唐雨柔</t>
+  </si>
+  <si>
+    <t>皇甫卓</t>
+  </si>
+  <si>
+    <t>龙幽</t>
+  </si>
+  <si>
+    <t>凌波</t>
+  </si>
+  <si>
+    <t>龙溟</t>
+  </si>
+  <si>
+    <t>凌音</t>
+  </si>
+  <si>
+    <t>暮菖兰</t>
+  </si>
+  <si>
+    <t>枯木</t>
+  </si>
+  <si>
+    <t>姜承</t>
+  </si>
+  <si>
+    <t>厉岩</t>
+  </si>
+  <si>
+    <t>谢沧行</t>
+  </si>
+  <si>
+    <t>夏侯瑾轩</t>
+  </si>
+  <si>
+    <t>云裳</t>
+  </si>
+  <si>
+    <t>云裳部件</t>
+  </si>
+  <si>
+    <t>南蛮王</t>
+  </si>
+  <si>
+    <t>海棠夫人</t>
+  </si>
+  <si>
+    <t>厉江流</t>
+  </si>
+  <si>
+    <t>灵月宫主</t>
+  </si>
+  <si>
+    <t>李三思</t>
+  </si>
+  <si>
+    <t>葛巧菱</t>
+  </si>
+  <si>
+    <t>柔情月如</t>
+  </si>
+  <si>
+    <t>掌门逍遥</t>
+  </si>
+  <si>
+    <t>闲卿</t>
+  </si>
+  <si>
+    <t>太清真人</t>
+  </si>
+  <si>
+    <t>梦蛇灵儿</t>
+  </si>
+  <si>
+    <t>铁笔</t>
+  </si>
+  <si>
+    <t>盛尊武</t>
+  </si>
+  <si>
+    <t>梦蛇紫萱</t>
+  </si>
+  <si>
+    <t>越祈</t>
+  </si>
+  <si>
+    <t>公主龙葵</t>
+  </si>
+  <si>
+    <t>太子龙阳</t>
+  </si>
+  <si>
+    <t>魔尊重楼</t>
+  </si>
+  <si>
+    <t>掌门长卿</t>
+  </si>
+  <si>
+    <t>藏锋</t>
+  </si>
+  <si>
+    <t>飞蓬</t>
+  </si>
+  <si>
+    <t>重楼</t>
+  </si>
+  <si>
     <t>飞仙玄霄</t>
   </si>
   <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>琼华梦璃</t>
-  </si>
-  <si>
-    <t>琼华天河</t>
-  </si>
-  <si>
-    <t>璇玑</t>
-  </si>
-  <si>
-    <t>怀朔</t>
-  </si>
-  <si>
-    <t>欧阳英</t>
-  </si>
-  <si>
-    <t>五前</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>市井混混</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>锤护院</t>
-  </si>
-  <si>
-    <t>罗汉腿</t>
-  </si>
-  <si>
-    <t>暗器手</t>
-  </si>
-  <si>
-    <t>拜月教徒</t>
-  </si>
-  <si>
-    <t>枪卒</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>霹雳武士</t>
-  </si>
-  <si>
-    <t>瘟神</t>
-  </si>
-  <si>
-    <t>赵无延</t>
-  </si>
-  <si>
-    <t>金蟾</t>
-  </si>
-  <si>
-    <t>蛇妖男</t>
-  </si>
-  <si>
-    <t>五毒巨蝎</t>
-  </si>
-  <si>
-    <t>书中仙</t>
-  </si>
-  <si>
-    <t>拜月使者</t>
-  </si>
-  <si>
-    <t>精精</t>
-  </si>
-  <si>
-    <t>兵器谱</t>
-  </si>
-  <si>
-    <t>赵文昌</t>
-  </si>
-  <si>
-    <t>小小蛮</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>双头冰蛇</t>
-  </si>
-  <si>
-    <t>小虎子</t>
-  </si>
-  <si>
-    <t>李大娘</t>
-  </si>
-  <si>
-    <t>姬三娘</t>
-  </si>
-  <si>
-    <t>唐钰</t>
-  </si>
-  <si>
-    <t>暗香</t>
-  </si>
-  <si>
-    <t>树妖</t>
-  </si>
-  <si>
-    <t>智杖和尚</t>
-  </si>
-  <si>
-    <t>九头蛇</t>
-  </si>
-  <si>
-    <t>狐妖女</t>
-  </si>
-  <si>
-    <t>毒娘子</t>
-  </si>
-  <si>
-    <t>香兰</t>
-  </si>
-  <si>
-    <t>刘晋元</t>
-  </si>
-  <si>
-    <t>韩医仙</t>
-  </si>
-  <si>
-    <t>韩梦慈</t>
-  </si>
-  <si>
-    <t>喻南松</t>
-  </si>
-  <si>
-    <t>巨灵神</t>
-  </si>
-  <si>
-    <t>古藤精</t>
-  </si>
-  <si>
-    <t>古藤老人</t>
-  </si>
-  <si>
-    <t>魔披风</t>
-  </si>
-  <si>
-    <t>唐泰</t>
-  </si>
-  <si>
-    <t>唐益</t>
-  </si>
-  <si>
-    <t>罗如烈</t>
-  </si>
-  <si>
-    <t>耀甲</t>
-  </si>
-  <si>
-    <t>海富贵</t>
-  </si>
-  <si>
-    <t>雪纹兽</t>
-  </si>
-  <si>
-    <t>智修大师</t>
-  </si>
-  <si>
-    <t>小石头</t>
-  </si>
-  <si>
-    <t>巫王</t>
-  </si>
-  <si>
-    <t>火麒麟</t>
-  </si>
-  <si>
-    <t>骷髅将军</t>
-  </si>
-  <si>
-    <t>彩依</t>
-  </si>
-  <si>
-    <t>盖罗娇</t>
-  </si>
-  <si>
-    <t>姜婉儿</t>
-  </si>
-  <si>
-    <t>姥姥</t>
-  </si>
-  <si>
-    <t>木道人</t>
-  </si>
-  <si>
-    <t>金翅凤凰</t>
-  </si>
-  <si>
-    <t>金蟾鬼母</t>
-  </si>
-  <si>
-    <t>苍萤</t>
-  </si>
-  <si>
-    <t>万玉枝</t>
-  </si>
-  <si>
-    <t>炎邪女</t>
-  </si>
-  <si>
-    <t>欧阳慧</t>
-  </si>
-  <si>
-    <t>夏孤临</t>
-  </si>
-  <si>
-    <t>腥鬼</t>
-  </si>
-  <si>
-    <t>夏侯韬</t>
-  </si>
-  <si>
-    <t>欧阳倩</t>
-  </si>
-  <si>
-    <t>圣姑</t>
-  </si>
-  <si>
-    <t>林天南</t>
-  </si>
-  <si>
-    <t>土神龙</t>
-  </si>
-  <si>
-    <t>冰神龙</t>
-  </si>
-  <si>
-    <t>雷神龙</t>
-  </si>
-  <si>
-    <t>火神龙</t>
-  </si>
-  <si>
-    <t>风神龙</t>
-  </si>
-  <si>
-    <t>姜清</t>
-  </si>
-  <si>
-    <t>石长老</t>
-  </si>
-  <si>
-    <t>赤鬼王</t>
-  </si>
-  <si>
-    <t>地魔兽</t>
-  </si>
-  <si>
-    <t>敖耶神牛</t>
-  </si>
-  <si>
-    <t>神将军</t>
-  </si>
-  <si>
-    <t>云霆</t>
-  </si>
-  <si>
-    <t>溪风</t>
-  </si>
-  <si>
-    <t>炎帝侍</t>
-  </si>
-  <si>
-    <t>仙缘1</t>
-  </si>
-  <si>
-    <t>仙缘2</t>
-  </si>
-  <si>
-    <t>仙缘31</t>
-  </si>
-  <si>
-    <t>仙缘32</t>
-  </si>
-  <si>
-    <t>仙缘33</t>
-  </si>
-  <si>
-    <t>仙缘34</t>
-  </si>
-  <si>
-    <t>绝技1</t>
-  </si>
-  <si>
-    <t>绝技21</t>
-  </si>
-  <si>
-    <t>绝技22</t>
-  </si>
-  <si>
-    <t>绝技31</t>
-  </si>
-  <si>
-    <t>绝技32</t>
-  </si>
-  <si>
-    <t>绝技33</t>
-  </si>
-  <si>
-    <t>巫后</t>
-  </si>
-  <si>
-    <t>夕瑶</t>
-  </si>
-  <si>
-    <t>水魔兽</t>
-  </si>
-  <si>
-    <t>紫萱</t>
-  </si>
-  <si>
-    <t>赵灵儿</t>
-  </si>
-  <si>
-    <t>李忆如</t>
-  </si>
-  <si>
-    <t>小蛮</t>
-  </si>
-  <si>
-    <t>镇狱明王</t>
-  </si>
-  <si>
-    <t>邪剑仙</t>
-  </si>
-  <si>
-    <t>拜月教主</t>
-  </si>
-  <si>
-    <t>雷元戈</t>
-  </si>
-  <si>
-    <t>李逍遥</t>
-  </si>
-  <si>
-    <t>林月如</t>
-  </si>
-  <si>
-    <t>阿奴</t>
-  </si>
-  <si>
-    <t>瑕</t>
-  </si>
-  <si>
-    <t>苏媚</t>
-  </si>
-  <si>
-    <t>草谷</t>
-  </si>
-  <si>
-    <t>天鬼皇</t>
-  </si>
-  <si>
-    <t>孔磷</t>
-  </si>
-  <si>
-    <t>王小虎</t>
-  </si>
-  <si>
-    <t>天魑皇</t>
-  </si>
-  <si>
-    <t>帝江神兽</t>
-  </si>
-  <si>
-    <t>青阳</t>
-  </si>
-  <si>
-    <t>千叶禅师</t>
-  </si>
-  <si>
-    <t>天妖皇</t>
-  </si>
-  <si>
-    <t>燎日</t>
-  </si>
-  <si>
-    <t>沈欺霜</t>
-  </si>
-  <si>
-    <t>冰晶女</t>
-  </si>
-  <si>
-    <t>妖灵雪女</t>
-  </si>
-  <si>
-    <t>火灵炎舞</t>
-  </si>
-  <si>
-    <t>熔岩兽王</t>
-  </si>
-  <si>
-    <t>黑豹</t>
-  </si>
-  <si>
-    <t>衔烛之龙</t>
-  </si>
-  <si>
-    <t>句芒</t>
-  </si>
-  <si>
-    <t>巨龙穹武</t>
-  </si>
-  <si>
-    <t>清微</t>
-  </si>
-  <si>
-    <t>徐长卿</t>
-  </si>
-  <si>
-    <t>剑圣</t>
-  </si>
-  <si>
-    <t>一贫</t>
-  </si>
-  <si>
-    <t>太武</t>
-  </si>
-  <si>
-    <t>红葵</t>
-  </si>
-  <si>
-    <t>蓝葵</t>
-  </si>
-  <si>
-    <t>结萝</t>
-  </si>
-  <si>
-    <t>慕容紫英</t>
-  </si>
-  <si>
-    <t>唐雪见</t>
-  </si>
-  <si>
-    <t>景天</t>
-  </si>
-  <si>
-    <t>花楹</t>
-  </si>
-  <si>
-    <t>王蓬絮</t>
-  </si>
-  <si>
-    <t>三外</t>
-  </si>
-  <si>
-    <t>温慧</t>
-  </si>
-  <si>
-    <t>南宫煌</t>
-  </si>
-  <si>
-    <t>星璇</t>
-  </si>
-  <si>
-    <t>酒剑仙</t>
-  </si>
-  <si>
-    <t>岚翼</t>
-  </si>
-  <si>
-    <t>夙瑶</t>
-  </si>
-  <si>
-    <t>韩菱纱</t>
-  </si>
-  <si>
-    <t>柳梦璃</t>
-  </si>
-  <si>
-    <t>云天河</t>
-  </si>
-  <si>
-    <t>云天青</t>
-  </si>
-  <si>
-    <t>玄霄</t>
-  </si>
-  <si>
-    <t>夙玉</t>
-  </si>
-  <si>
-    <t>姜云凡</t>
-  </si>
-  <si>
-    <t>唐雨柔</t>
-  </si>
-  <si>
-    <t>皇甫卓</t>
-  </si>
-  <si>
-    <t>龙幽</t>
-  </si>
-  <si>
-    <t>凌波</t>
-  </si>
-  <si>
-    <t>龙溟</t>
-  </si>
-  <si>
-    <t>凌音</t>
-  </si>
-  <si>
-    <t>暮菖兰</t>
-  </si>
-  <si>
-    <t>枯木</t>
-  </si>
-  <si>
-    <t>姜承</t>
-  </si>
-  <si>
-    <t>厉岩</t>
-  </si>
-  <si>
-    <t>谢沧行</t>
-  </si>
-  <si>
-    <t>夏侯瑾轩</t>
-  </si>
-  <si>
-    <t>云裳</t>
-  </si>
-  <si>
-    <t>云裳部件</t>
-  </si>
-  <si>
-    <t>南蛮王</t>
-  </si>
-  <si>
-    <t>海棠夫人</t>
-  </si>
-  <si>
-    <t>厉江流</t>
-  </si>
-  <si>
-    <t>灵月宫主</t>
-  </si>
-  <si>
-    <t>李三思</t>
-  </si>
-  <si>
-    <t>葛巧菱</t>
-  </si>
-  <si>
-    <t>柔情月如</t>
-  </si>
-  <si>
-    <t>掌门逍遥</t>
-  </si>
-  <si>
-    <t>闲卿</t>
-  </si>
-  <si>
-    <t>太清真人</t>
-  </si>
-  <si>
-    <t>梦蛇灵儿</t>
-  </si>
-  <si>
-    <t>铁笔</t>
-  </si>
-  <si>
-    <t>盛尊武</t>
-  </si>
-  <si>
-    <t>梦蛇紫萱</t>
-  </si>
-  <si>
-    <t>越祈</t>
-  </si>
-  <si>
-    <t>公主龙葵</t>
-  </si>
-  <si>
-    <t>太子龙阳</t>
-  </si>
-  <si>
-    <t>魔尊重楼</t>
-  </si>
-  <si>
-    <t>掌门长卿</t>
-  </si>
-  <si>
-    <t>藏锋</t>
-  </si>
-  <si>
-    <t>飞蓬</t>
-  </si>
-  <si>
-    <t>重楼</t>
+    <t>紫英仙人</t>
   </si>
   <si>
     <t>琼华菱纱</t>
   </si>
   <si>
     <t>夙莘</t>
-  </si>
-  <si>
-    <t>紫英仙人</t>
   </si>
   <si>
     <t>居十方</t>
@@ -730,10 +730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -744,9 +744,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,60 +841,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,18 +857,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,33 +881,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -897,7 +897,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +957,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,73 +1065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,78 +1078,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1095,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,16 +1131,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,32 +1163,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,6 +1179,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1196,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1670,13 +1670,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="3" width="5.375" customWidth="1"/>
   </cols>
@@ -1708,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1736,33 +1736,26 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <f>SUM(C2:C8)</f>
-        <v>7</v>
+      <c r="C8" s="2">
+        <f>SUM(C2:C7)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1795,10 +1788,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1806,34 +1799,34 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1841,25 +1834,25 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C10)</f>
@@ -1902,10 +1895,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1913,38 +1906,38 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1952,24 +1945,24 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1977,14 +1970,14 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -2029,10 +2022,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>14</v>
@@ -2040,98 +2033,98 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -2142,10 +2135,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
         <v>7</v>
@@ -2153,52 +2146,52 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2206,21 +2199,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2">
         <f>SUM(C2:C26)</f>
@@ -2265,10 +2258,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
@@ -2276,87 +2269,87 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -2364,24 +2357,24 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -2389,17 +2382,17 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -2407,21 +2400,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2">
         <f>SUM(C2:C21)</f>
@@ -2468,10 +2461,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
@@ -2479,80 +2472,80 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -2560,31 +2553,31 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2592,7 +2585,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <f>SUM(C2:C17)</f>
@@ -2638,350 +2631,350 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="M8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -2993,658 +2986,658 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="M10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="J16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="M16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="N17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="M18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="L20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -3653,592 +3646,592 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="F29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="J29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="O29" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="O30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="K31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="N31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="G32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="M32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="M38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="L40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="O40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="L41" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="O41" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="H42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="N42" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="K43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <f>SUM(C2:C43)</f>
@@ -4270,7 +4263,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4295,90 +4288,90 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -4386,41 +4379,41 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -4431,41 +4424,41 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -4476,41 +4469,41 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     